--- a/data/trans_orig/Cage-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Cage-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D914707D-FF42-4919-AA3F-A5AB39F7EED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B677A1B1-2504-4EE7-B22F-2F693C819E58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2D2E25E0-8E48-4AFB-B565-B17841127773}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{446A5249-487B-4560-92E9-521C1126DAE1}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="340">
   <si>
     <t>Población con sospecha de alcoholismo (CAGE) en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -98,13 +98,13 @@
     <t>0,92%</t>
   </si>
   <si>
-    <t>4,23%</t>
+    <t>6,69%</t>
   </si>
   <si>
     <t>0,46%</t>
   </si>
   <si>
-    <t>2,44%</t>
+    <t>2,77%</t>
   </si>
   <si>
     <t>Beberdor social</t>
@@ -113,7 +113,7 @@
     <t>99,08%</t>
   </si>
   <si>
-    <t>95,77%</t>
+    <t>93,31%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -128,7 +128,7 @@
     <t>99,54%</t>
   </si>
   <si>
-    <t>97,56%</t>
+    <t>97,23%</t>
   </si>
   <si>
     <t>2/10</t>
@@ -143,904 +143,922 @@
     <t>0,17%</t>
   </si>
   <si>
-    <t>1,78%</t>
+    <t>1,95%</t>
   </si>
   <si>
     <t>0,23%</t>
   </si>
   <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
     <t>0,95%</t>
   </si>
   <si>
-    <t>0,16%</t>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con sospecha de alcoholismo (CAGE) en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>Población con sospecha de alcoholismo (CAGE) en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>Población con sospecha de alcoholismo (CAGE) en 2023 (Tasa respuesta: 31,73%)</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
   </si>
   <si>
     <t>0,94%</t>
   </si>
   <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con sospecha de alcoholismo (CAGE) en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
   </si>
   <si>
     <t>1,27%</t>
   </si>
   <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>99,94%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>Población con sospecha de alcoholismo (CAGE) en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
   </si>
   <si>
     <t>99,18%</t>
   </si>
   <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>Población con sospecha de alcoholismo (CAGE) en 2023 (Tasa respuesta: 31,73%)</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>99,96%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
     <t>98,06%</t>
   </si>
   <si>
-    <t>97,39%</t>
+    <t>97,43%</t>
   </si>
 </sst>
 </file>
@@ -1452,7 +1470,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC8A950E-5A6E-416C-85B8-D3C5882A1C97}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9939D967-FF9A-4FAB-AFAF-6C1F0CFA7072}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2123,10 +2141,10 @@
         <v>53</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2171,13 +2189,13 @@
         <v>969</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2192,13 +2210,13 @@
         <v>3119</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>55</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -2207,13 +2225,13 @@
         <v>1030</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -2225,10 +2243,10 @@
         <v>52</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2243,10 +2261,10 @@
         <v>954771</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>45</v>
@@ -2258,10 +2276,10 @@
         <v>967363</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>25</v>
@@ -2273,13 +2291,13 @@
         <v>1922134</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2335,7 +2353,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2347,13 +2365,13 @@
         <v>2666</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -2368,7 +2386,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -2377,13 +2395,13 @@
         <v>2666</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2404,7 +2422,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2419,7 +2437,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2434,7 +2452,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2449,13 +2467,13 @@
         <v>3982</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -2470,7 +2488,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M21" s="7">
         <v>4</v>
@@ -2479,13 +2497,13 @@
         <v>3982</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2500,13 +2518,13 @@
         <v>671861</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="H22" s="7">
         <v>696</v>
@@ -2533,10 +2551,10 @@
         <v>86</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2592,7 +2610,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2610,7 +2628,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -2625,7 +2643,7 @@
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
@@ -2634,13 +2652,13 @@
         <v>1018</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2661,7 +2679,7 @@
         <v>50</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -2670,13 +2688,13 @@
         <v>2006</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="M25" s="7">
         <v>5</v>
@@ -2685,13 +2703,13 @@
         <v>5233</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2706,13 +2724,13 @@
         <v>4128</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>50</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H26" s="7">
         <v>4</v>
@@ -2724,10 +2742,10 @@
         <v>56</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="M26" s="7">
         <v>8</v>
@@ -2736,13 +2754,13 @@
         <v>9363</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>38</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2757,13 +2775,13 @@
         <v>934866</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="H27" s="7">
         <v>990</v>
@@ -2772,13 +2790,13 @@
         <v>1030354</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="M27" s="7">
         <v>1977</v>
@@ -2787,13 +2805,13 @@
         <v>1965220</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>103</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2864,10 +2882,10 @@
         <v>33</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
@@ -2876,13 +2894,13 @@
         <v>1018</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>33</v>
+        <v>110</v>
       </c>
       <c r="M29" s="7">
         <v>7</v>
@@ -2894,10 +2912,10 @@
         <v>55</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>52</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2918,7 +2936,7 @@
         <v>39</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H30" s="7">
         <v>2</v>
@@ -2927,13 +2945,13 @@
         <v>2006</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="M30" s="7">
         <v>8</v>
@@ -2942,13 +2960,13 @@
         <v>8843</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2963,13 +2981,13 @@
         <v>13194</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>109</v>
+        <v>54</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>35</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="H31" s="7">
         <v>5</v>
@@ -2978,13 +2996,13 @@
         <v>6265</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>112</v>
+        <v>54</v>
       </c>
       <c r="M31" s="7">
         <v>18</v>
@@ -2993,13 +3011,13 @@
         <v>19459</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>94</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3014,7 +3032,7 @@
         <v>3250905</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>114</v>
@@ -3041,7 +3059,7 @@
         <v>6478</v>
       </c>
       <c r="N32" s="7">
-        <v>6620813</v>
+        <v>6620814</v>
       </c>
       <c r="O32" s="7" t="s">
         <v>119</v>
@@ -3092,7 +3110,7 @@
         <v>6511</v>
       </c>
       <c r="N33" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>27</v>
@@ -3127,7 +3145,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FADCBE15-F2CD-425C-BE4E-5AB40C67CDDC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43B45D08-6301-464D-B2D6-B1D3955C4CCE}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3281,7 +3299,7 @@
         <v>727</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
@@ -3332,13 +3350,13 @@
         <v>1553</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3359,7 +3377,7 @@
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -3368,13 +3386,13 @@
         <v>1012</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>133</v>
+        <v>38</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="M6" s="7">
         <v>2</v>
@@ -3383,13 +3401,13 @@
         <v>1739</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3404,13 +3422,13 @@
         <v>112759</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="H7" s="7">
         <v>98</v>
@@ -3419,10 +3437,10 @@
         <v>110893</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>25</v>
@@ -3434,13 +3452,13 @@
         <v>223652</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3514,7 +3532,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>40</v>
+        <v>143</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -3529,7 +3547,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>40</v>
+        <v>143</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -3562,7 +3580,7 @@
         <v>20</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>144</v>
@@ -3580,7 +3598,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>40</v>
+        <v>143</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -3592,7 +3610,7 @@
         <v>35</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>145</v>
@@ -3616,7 +3634,7 @@
         <v>37</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>96</v>
+        <v>147</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -3631,7 +3649,7 @@
         <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>40</v>
+        <v>143</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
@@ -3640,13 +3658,13 @@
         <v>2972</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>57</v>
+        <v>148</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>39</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3661,13 +3679,13 @@
         <v>582029</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H12" s="7">
         <v>551</v>
@@ -3679,7 +3697,7 @@
         <v>25</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>27</v>
@@ -3691,13 +3709,13 @@
         <v>1167174</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>82</v>
+        <v>149</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3765,13 +3783,13 @@
         <v>3015</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>50</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>152</v>
+        <v>51</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3786,7 +3804,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -3798,10 +3816,10 @@
         <v>53</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>94</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3816,13 +3834,13 @@
         <v>4455</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>55</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -3837,7 +3855,7 @@
         <v>12</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M15" s="7">
         <v>3</v>
@@ -3846,13 +3864,13 @@
         <v>4455</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>110</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3867,13 +3885,13 @@
         <v>6477</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>93</v>
+        <v>159</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -3888,7 +3906,7 @@
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -3897,13 +3915,13 @@
         <v>7463</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>53</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3918,13 +3936,13 @@
         <v>1004000</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="H17" s="7">
         <v>939</v>
@@ -3933,10 +3951,10 @@
         <v>1031198</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>162</v>
+        <v>117</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>25</v>
@@ -3948,13 +3966,13 @@
         <v>2035198</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>99</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4010,7 +4028,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4028,7 +4046,7 @@
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -4043,7 +4061,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -4058,7 +4076,7 @@
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>109</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4076,10 +4094,10 @@
         <v>18</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>165</v>
+        <v>108</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4094,7 +4112,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="M20" s="7">
         <v>6</v>
@@ -4103,13 +4121,13 @@
         <v>6949</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>167</v>
+        <v>40</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4124,13 +4142,13 @@
         <v>10102</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>96</v>
+        <v>173</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="H21" s="7">
         <v>1</v>
@@ -4139,13 +4157,13 @@
         <v>996</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="M21" s="7">
         <v>11</v>
@@ -4154,13 +4172,13 @@
         <v>11098</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>81</v>
+        <v>176</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4175,13 +4193,13 @@
         <v>739361</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="H22" s="7">
         <v>704</v>
@@ -4190,10 +4208,10 @@
         <v>776178</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>176</v>
+        <v>118</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>25</v>
@@ -4205,13 +4223,13 @@
         <v>1515539</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4267,7 +4285,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -4279,13 +4297,13 @@
         <v>3930</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>112</v>
+        <v>155</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>55</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -4300,7 +4318,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M24" s="7">
         <v>4</v>
@@ -4309,13 +4327,13 @@
         <v>3930</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>104</v>
+        <v>57</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>180</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4330,13 +4348,13 @@
         <v>5525</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -4351,7 +4369,7 @@
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="M25" s="7">
         <v>6</v>
@@ -4363,10 +4381,10 @@
         <v>31</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>77</v>
+        <v>187</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4381,13 +4399,13 @@
         <v>15481</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>184</v>
+        <v>38</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -4396,13 +4414,13 @@
         <v>1129</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>145</v>
+        <v>186</v>
       </c>
       <c r="M26" s="7">
         <v>15</v>
@@ -4411,13 +4429,13 @@
         <v>16609</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>51</v>
+        <v>162</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>94</v>
+        <v>190</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4432,13 +4450,13 @@
         <v>922804</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="H27" s="7">
         <v>1001</v>
@@ -4447,10 +4465,10 @@
         <v>1049771</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="L27" s="7" t="s">
         <v>25</v>
@@ -4462,13 +4480,13 @@
         <v>1972575</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>192</v>
+        <v>84</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4536,13 +4554,13 @@
         <v>8882</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -4557,7 +4575,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="M29" s="7">
         <v>9</v>
@@ -4566,13 +4584,13 @@
         <v>8882</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>111</v>
+        <v>63</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>108</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4590,10 +4608,10 @@
         <v>145</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>195</v>
+        <v>108</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H30" s="7">
         <v>1</v>
@@ -4602,13 +4620,13 @@
         <v>1002</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M30" s="7">
         <v>20</v>
@@ -4617,13 +4635,13 @@
         <v>22186</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>197</v>
+        <v>146</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4638,13 +4656,13 @@
         <v>35760</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H31" s="7">
         <v>4</v>
@@ -4653,13 +4671,13 @@
         <v>4123</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="M31" s="7">
         <v>37</v>
@@ -4668,13 +4686,13 @@
         <v>39882</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>152</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4689,13 +4707,13 @@
         <v>3360953</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>175</v>
+        <v>205</v>
       </c>
       <c r="H32" s="7">
         <v>3293</v>
@@ -4704,13 +4722,13 @@
         <v>3553185</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>118</v>
+        <v>206</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="M32" s="7">
         <v>6441</v>
@@ -4719,13 +4737,13 @@
         <v>6914138</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4802,7 +4820,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E457FC96-5BCB-497C-8F04-589482F77C1B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE81EC42-9117-4661-819D-086F40B187E8}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4819,7 +4837,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4932,7 +4950,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4947,7 +4965,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4962,7 +4980,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4977,13 +4995,13 @@
         <v>1108</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>36</v>
+        <v>93</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4998,7 +5016,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -5007,13 +5025,13 @@
         <v>1108</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5034,7 +5052,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -5049,7 +5067,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -5064,7 +5082,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5079,10 +5097,10 @@
         <v>115438</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>25</v>
@@ -5097,7 +5115,7 @@
         <v>25</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>27</v>
@@ -5109,10 +5127,10 @@
         <v>228798</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>173</v>
+        <v>219</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>25</v>
@@ -5189,7 +5207,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -5204,7 +5222,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>40</v>
+        <v>143</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -5219,7 +5237,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5234,13 +5252,13 @@
         <v>1011</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -5255,7 +5273,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>40</v>
+        <v>143</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -5270,7 +5288,7 @@
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>167</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5285,13 +5303,13 @@
         <v>4488</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>157</v>
+        <v>221</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
@@ -5300,13 +5318,13 @@
         <v>1932</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>40</v>
+        <v>143</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>172</v>
+        <v>223</v>
       </c>
       <c r="M11" s="7">
         <v>6</v>
@@ -5315,13 +5333,13 @@
         <v>6420</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5336,13 +5354,13 @@
         <v>552755</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>220</v>
+        <v>121</v>
       </c>
       <c r="H12" s="7">
         <v>549</v>
@@ -5351,10 +5369,10 @@
         <v>557547</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>25</v>
@@ -5366,13 +5384,13 @@
         <v>1110302</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>190</v>
+        <v>227</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5446,7 +5464,7 @@
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>93</v>
+        <v>230</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -5455,13 +5473,13 @@
         <v>1104</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>181</v>
+        <v>79</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -5473,10 +5491,10 @@
         <v>37</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5491,13 +5509,13 @@
         <v>5667</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>224</v>
+        <v>62</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>218</v>
+        <v>127</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -5512,7 +5530,7 @@
         <v>12</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M15" s="7">
         <v>5</v>
@@ -5521,13 +5539,13 @@
         <v>5667</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>225</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5542,13 +5560,13 @@
         <v>14793</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>152</v>
+        <v>51</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -5557,13 +5575,13 @@
         <v>1874</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="M16" s="7">
         <v>14</v>
@@ -5572,13 +5590,13 @@
         <v>16667</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>152</v>
+        <v>51</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>233</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>228</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5593,13 +5611,13 @@
         <v>999827</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="H17" s="7">
         <v>974</v>
@@ -5608,13 +5626,13 @@
         <v>1039935</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="M17" s="7">
         <v>1906</v>
@@ -5623,13 +5641,13 @@
         <v>2039763</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>235</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5685,7 +5703,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5703,7 +5721,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -5718,7 +5736,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -5733,7 +5751,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5754,7 +5772,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5769,7 +5787,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5784,7 +5802,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5799,13 +5817,13 @@
         <v>7478</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>237</v>
+        <v>170</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -5820,7 +5838,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="M21" s="7">
         <v>7</v>
@@ -5829,13 +5847,13 @@
         <v>7478</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>52</v>
+        <v>157</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5850,13 +5868,13 @@
         <v>752074</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>67</v>
+        <v>244</v>
       </c>
       <c r="H22" s="7">
         <v>736</v>
@@ -5868,7 +5886,7 @@
         <v>25</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>27</v>
@@ -5880,13 +5898,13 @@
         <v>1537085</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>147</v>
+        <v>83</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5942,7 +5960,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5975,7 +5993,7 @@
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
@@ -5984,7 +6002,7 @@
         <v>922</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>11</v>
@@ -6005,13 +6023,13 @@
         <v>5075</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>74</v>
-      </c>
       <c r="G25" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -6026,7 +6044,7 @@
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>224</v>
+        <v>40</v>
       </c>
       <c r="M25" s="7">
         <v>6</v>
@@ -6035,13 +6053,13 @@
         <v>6016</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6056,13 +6074,13 @@
         <v>7017</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="H26" s="7">
         <v>9</v>
@@ -6071,13 +6089,13 @@
         <v>10115</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="M26" s="7">
         <v>16</v>
@@ -6086,13 +6104,13 @@
         <v>17132</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>197</v>
+        <v>146</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6107,13 +6125,13 @@
         <v>925475</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>63</v>
+        <v>195</v>
       </c>
       <c r="H27" s="7">
         <v>948</v>
@@ -6122,13 +6140,13 @@
         <v>1031801</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="M27" s="7">
         <v>1868</v>
@@ -6137,13 +6155,13 @@
         <v>1957276</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>252</v>
+        <v>226</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6211,13 +6229,13 @@
         <v>2143</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -6226,13 +6244,13 @@
         <v>2026</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="M29" s="7">
         <v>4</v>
@@ -6241,13 +6259,13 @@
         <v>4170</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6262,13 +6280,13 @@
         <v>12861</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>195</v>
+        <v>260</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="H30" s="7">
         <v>1</v>
@@ -6277,13 +6295,13 @@
         <v>941</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="M30" s="7">
         <v>13</v>
@@ -6292,13 +6310,13 @@
         <v>13802</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6313,13 +6331,13 @@
         <v>33776</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>256</v>
+        <v>147</v>
       </c>
       <c r="H31" s="7">
         <v>13</v>
@@ -6328,13 +6346,13 @@
         <v>13921</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>52</v>
+        <v>157</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>257</v>
+        <v>94</v>
       </c>
       <c r="M31" s="7">
         <v>43</v>
@@ -6346,10 +6364,10 @@
         <v>91</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>62</v>
+        <v>190</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6364,13 +6382,13 @@
         <v>3345570</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="H32" s="7">
         <v>3322</v>
@@ -6379,13 +6397,13 @@
         <v>3527654</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>120</v>
+        <v>69</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="M32" s="7">
         <v>6509</v>
@@ -6394,13 +6412,13 @@
         <v>6873224</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>252</v>
+        <v>226</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>120</v>
+        <v>265</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6477,7 +6495,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16B3B6BC-1E7A-47AC-927F-E31B0D5EA0D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D693F0FA-F376-4745-93B0-BD9125942D40}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6494,7 +6512,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6607,7 +6625,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6622,7 +6640,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6637,7 +6655,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6652,13 +6670,13 @@
         <v>859</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -6673,7 +6691,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -6682,13 +6700,13 @@
         <v>859</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>267</v>
+        <v>99</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6709,7 +6727,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -6724,7 +6742,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -6739,7 +6757,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6754,10 +6772,10 @@
         <v>45148</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>25</v>
@@ -6772,7 +6790,7 @@
         <v>25</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>27</v>
@@ -6784,10 +6802,10 @@
         <v>72412</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>272</v>
+        <v>114</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>25</v>
@@ -6858,13 +6876,13 @@
         <v>584</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
@@ -6873,13 +6891,13 @@
         <v>1410</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="M9" s="7">
         <v>3</v>
@@ -6891,10 +6909,10 @@
         <v>20</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>245</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6915,7 +6933,7 @@
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -6939,13 +6957,13 @@
         <v>617</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>152</v>
+        <v>279</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6966,7 +6984,7 @@
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>276</v>
+        <v>160</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -6996,7 +7014,7 @@
         <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7011,13 +7029,13 @@
         <v>286401</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="H12" s="7">
         <v>205</v>
@@ -7026,10 +7044,10 @@
         <v>139618</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>25</v>
@@ -7044,10 +7062,10 @@
         <v>23</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>253</v>
+        <v>285</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>149</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7115,13 +7133,13 @@
         <v>7776</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>169</v>
+        <v>221</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="H14" s="7">
         <v>4</v>
@@ -7130,13 +7148,13 @@
         <v>3651</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="M14" s="7">
         <v>13</v>
@@ -7145,13 +7163,13 @@
         <v>11427</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>127</v>
+        <v>289</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7166,13 +7184,13 @@
         <v>657</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="H15" s="7">
         <v>2</v>
@@ -7181,13 +7199,13 @@
         <v>1488</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>130</v>
+        <v>94</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="M15" s="7">
         <v>3</v>
@@ -7196,13 +7214,13 @@
         <v>2144</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>50</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>247</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -7223,7 +7241,7 @@
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -7238,7 +7256,7 @@
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -7253,7 +7271,7 @@
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7268,13 +7286,13 @@
         <v>477196</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>192</v>
+        <v>295</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="H17" s="7">
         <v>279</v>
@@ -7283,13 +7301,13 @@
         <v>211908</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="M17" s="7">
         <v>711</v>
@@ -7298,13 +7316,13 @@
         <v>689103</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7360,7 +7378,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7378,7 +7396,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>93</v>
+        <v>159</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -7387,13 +7405,13 @@
         <v>2701</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>38</v>
+        <v>303</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -7402,13 +7420,13 @@
         <v>2701</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>299</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7423,13 +7441,13 @@
         <v>2643</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>157</v>
+        <v>221</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>55</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -7444,7 +7462,7 @@
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>155</v>
+        <v>306</v>
       </c>
       <c r="M20" s="7">
         <v>6</v>
@@ -7453,13 +7471,13 @@
         <v>3530</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>200</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7474,13 +7492,13 @@
         <v>2985</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>133</v>
+        <v>38</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>164</v>
+        <v>74</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="H21" s="7">
         <v>1</v>
@@ -7489,13 +7507,13 @@
         <v>696</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="M21" s="7">
         <v>5</v>
@@ -7504,13 +7522,13 @@
         <v>3681</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>113</v>
+        <v>33</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>287</v>
+        <v>309</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7525,13 +7543,13 @@
         <v>324269</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="H22" s="7">
         <v>236</v>
@@ -7540,13 +7558,13 @@
         <v>284208</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>307</v>
+        <v>207</v>
       </c>
       <c r="M22" s="7">
         <v>527</v>
@@ -7555,13 +7573,13 @@
         <v>608478</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>310</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7617,7 +7635,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -7629,13 +7647,13 @@
         <v>4156</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>133</v>
+        <v>38</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>264</v>
+        <v>315</v>
       </c>
       <c r="H24" s="7">
         <v>5</v>
@@ -7644,13 +7662,13 @@
         <v>2476</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>311</v>
+        <v>168</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>264</v>
+        <v>316</v>
       </c>
       <c r="M24" s="7">
         <v>11</v>
@@ -7659,13 +7677,13 @@
         <v>6633</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>209</v>
+        <v>289</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7680,13 +7698,13 @@
         <v>5458</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>302</v>
+        <v>278</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -7710,13 +7728,13 @@
         <v>5458</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>155</v>
+        <v>309</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7731,13 +7749,13 @@
         <v>6954</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>313</v>
+        <v>293</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>124</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -7746,13 +7764,13 @@
         <v>822</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="M26" s="7">
         <v>9</v>
@@ -7761,13 +7779,13 @@
         <v>7776</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>316</v>
+        <v>198</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>94</v>
+        <v>320</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7782,13 +7800,13 @@
         <v>442901</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>303</v>
+        <v>322</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="H27" s="7">
         <v>411</v>
@@ -7797,13 +7815,13 @@
         <v>308307</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>260</v>
+        <v>325</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>121</v>
+        <v>244</v>
       </c>
       <c r="M27" s="7">
         <v>875</v>
@@ -7812,13 +7830,13 @@
         <v>751208</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>323</v>
+        <v>258</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7886,13 +7904,13 @@
         <v>12515</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>172</v>
+        <v>330</v>
       </c>
       <c r="H29" s="7">
         <v>12</v>
@@ -7901,13 +7919,13 @@
         <v>10238</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>146</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>286</v>
+        <v>331</v>
       </c>
       <c r="M29" s="7">
         <v>28</v>
@@ -7916,13 +7934,13 @@
         <v>22754</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>325</v>
+        <v>60</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>181</v>
+        <v>62</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>96</v>
+        <v>332</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7937,13 +7955,13 @@
         <v>10234</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>93</v>
+        <v>159</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>326</v>
+        <v>224</v>
       </c>
       <c r="H30" s="7">
         <v>4</v>
@@ -7952,13 +7970,13 @@
         <v>2374</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>111</v>
+        <v>63</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="M30" s="7">
         <v>16</v>
@@ -7967,13 +7985,13 @@
         <v>12608</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>62</v>
+        <v>233</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>157</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7988,13 +8006,13 @@
         <v>12789</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>311</v>
+        <v>168</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>327</v>
+        <v>40</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="H31" s="7">
         <v>3</v>
@@ -8003,13 +8021,13 @@
         <v>2189</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>104</v>
+        <v>57</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="M31" s="7">
         <v>18</v>
@@ -8018,13 +8036,13 @@
         <v>14978</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>32</v>
+        <v>143</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>328</v>
+        <v>241</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8039,13 +8057,13 @@
         <v>1575913</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="H32" s="7">
         <v>1174</v>
@@ -8054,13 +8072,13 @@
         <v>971305</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>232</v>
+        <v>337</v>
       </c>
       <c r="M32" s="7">
         <v>2712</v>
@@ -8069,13 +8087,13 @@
         <v>2547219</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>331</v>
+        <v>236</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/Cage-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Cage-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B677A1B1-2504-4EE7-B22F-2F693C819E58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D228313B-556B-4E8D-976C-EE9393965997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{446A5249-487B-4560-92E9-521C1126DAE1}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{956E55F2-073D-4DEF-88E5-EC20AB3ECE3E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="341">
   <si>
     <t>Población con sospecha de alcoholismo (CAGE) en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Dependencia alcohólica</t>
@@ -98,13 +98,13 @@
     <t>0,92%</t>
   </si>
   <si>
-    <t>6,69%</t>
+    <t>4,48%</t>
   </si>
   <si>
     <t>0,46%</t>
   </si>
   <si>
-    <t>2,77%</t>
+    <t>2,55%</t>
   </si>
   <si>
     <t>Beberdor social</t>
@@ -113,7 +113,7 @@
     <t>99,08%</t>
   </si>
   <si>
-    <t>93,31%</t>
+    <t>95,52%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -128,10 +128,10 @@
     <t>99,54%</t>
   </si>
   <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>2/10</t>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>0,33%</t>
@@ -143,922 +143,925 @@
     <t>0,17%</t>
   </si>
   <si>
-    <t>1,95%</t>
+    <t>1,67%</t>
   </si>
   <si>
     <t>0,23%</t>
   </si>
   <si>
-    <t>0,89%</t>
+    <t>0,77%</t>
   </si>
   <si>
     <t>0,16%</t>
   </si>
   <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con sospecha de alcoholismo (CAGE) en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
     <t>0,9%</t>
   </si>
   <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
   </si>
   <si>
     <t>97,89%</t>
   </si>
   <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>Población con sospecha de alcoholismo (CAGE) en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
   </si>
   <si>
     <t>0,81%</t>
   </si>
   <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,19%</t>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
   </si>
   <si>
     <t>0,69%</t>
   </si>
   <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>Población con sospecha de alcoholismo (CAGE) en 2023 (Tasa respuesta: 31,73%)</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
   </si>
   <si>
     <t>0,6%</t>
   </si>
   <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con sospecha de alcoholismo (CAGE) en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
+    <t>1,56%</t>
   </si>
   <si>
     <t>98,29%</t>
   </si>
   <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
   </si>
   <si>
     <t>1,01%</t>
   </si>
   <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,94%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>Población con sospecha de alcoholismo (CAGE) en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
   </si>
   <si>
     <t>1,2%</t>
   </si>
   <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
   </si>
   <si>
     <t>98,58%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>Población con sospecha de alcoholismo (CAGE) en 2023 (Tasa respuesta: 31,73%)</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
   </si>
 </sst>
 </file>
@@ -1470,7 +1473,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9939D967-FF9A-4FAB-AFAF-6C1F0CFA7072}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{748F2E43-C918-4FC8-857A-5176B2009288}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2141,10 +2144,10 @@
         <v>53</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2159,13 +2162,13 @@
         <v>969</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -2189,7 +2192,7 @@
         <v>969</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>11</v>
@@ -2213,7 +2216,7 @@
         <v>59</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>60</v>
@@ -2231,7 +2234,7 @@
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -2243,10 +2246,10 @@
         <v>52</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2398,10 +2401,10 @@
         <v>75</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2422,7 +2425,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2452,7 +2455,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2467,13 +2470,13 @@
         <v>3982</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>53</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -2497,7 +2500,7 @@
         <v>3982</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>81</v>
@@ -2551,10 +2554,10 @@
         <v>86</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2610,7 +2613,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2628,7 +2631,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -2637,13 +2640,13 @@
         <v>1018</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
@@ -2652,13 +2655,13 @@
         <v>1018</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2679,7 +2682,7 @@
         <v>50</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -2688,13 +2691,13 @@
         <v>2006</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="M25" s="7">
         <v>5</v>
@@ -2703,13 +2706,13 @@
         <v>5233</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>50</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2724,13 +2727,13 @@
         <v>4128</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>50</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="H26" s="7">
         <v>4</v>
@@ -2739,13 +2742,13 @@
         <v>5235</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="M26" s="7">
         <v>8</v>
@@ -2754,13 +2757,13 @@
         <v>9363</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2775,10 +2778,10 @@
         <v>934866</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>44</v>
@@ -2790,13 +2793,13 @@
         <v>1030354</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="M27" s="7">
         <v>1977</v>
@@ -2805,13 +2808,13 @@
         <v>1965220</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>68</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2882,10 +2885,10 @@
         <v>33</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
@@ -2894,13 +2897,13 @@
         <v>1018</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>110</v>
+        <v>33</v>
       </c>
       <c r="M29" s="7">
         <v>7</v>
@@ -2909,13 +2912,13 @@
         <v>6625</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2933,10 +2936,10 @@
         <v>52</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="H30" s="7">
         <v>2</v>
@@ -2945,13 +2948,13 @@
         <v>2006</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="M30" s="7">
         <v>8</v>
@@ -2960,13 +2963,13 @@
         <v>8843</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>95</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2981,13 +2984,13 @@
         <v>13194</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>35</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H31" s="7">
         <v>5</v>
@@ -2996,13 +2999,13 @@
         <v>6265</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="M31" s="7">
         <v>18</v>
@@ -3011,13 +3014,13 @@
         <v>19459</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>110</v>
+        <v>33</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3029,16 +3032,16 @@
         <v>3189</v>
       </c>
       <c r="D32" s="7">
-        <v>3250905</v>
+        <v>3250904</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>115</v>
+        <v>67</v>
       </c>
       <c r="H32" s="7">
         <v>3289</v>
@@ -3047,13 +3050,13 @@
         <v>3369909</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M32" s="7">
         <v>6478</v>
@@ -3062,13 +3065,13 @@
         <v>6620814</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3080,7 +3083,7 @@
         <v>3214</v>
       </c>
       <c r="D33" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>27</v>
@@ -3124,7 +3127,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -3145,7 +3148,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43B45D08-6301-464D-B2D6-B1D3955C4CCE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{341CCC60-4B8A-497D-BDC2-7364EB47408F}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3162,7 +3165,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3269,13 +3272,13 @@
         <v>727</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3290,7 +3293,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -3305,7 +3308,7 @@
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3320,13 +3323,13 @@
         <v>1553</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3341,7 +3344,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -3350,13 +3353,13 @@
         <v>1553</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3371,13 +3374,13 @@
         <v>727</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -3386,13 +3389,13 @@
         <v>1012</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>38</v>
+        <v>130</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M6" s="7">
         <v>2</v>
@@ -3401,13 +3404,13 @@
         <v>1739</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3422,13 +3425,13 @@
         <v>112759</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H7" s="7">
         <v>98</v>
@@ -3437,10 +3440,10 @@
         <v>110893</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>25</v>
@@ -3452,13 +3455,13 @@
         <v>223652</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3532,7 +3535,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>143</v>
+        <v>105</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -3547,7 +3550,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>143</v>
+        <v>105</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -3580,10 +3583,10 @@
         <v>20</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3598,7 +3601,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>143</v>
+        <v>105</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -3613,7 +3616,7 @@
         <v>81</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3628,13 +3631,13 @@
         <v>2972</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>37</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -3649,7 +3652,7 @@
         <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>143</v>
+        <v>105</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
@@ -3658,13 +3661,13 @@
         <v>2972</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>148</v>
+        <v>58</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>39</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>82</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3679,13 +3682,13 @@
         <v>582029</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H12" s="7">
         <v>551</v>
@@ -3697,7 +3700,7 @@
         <v>25</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>27</v>
@@ -3709,13 +3712,13 @@
         <v>1167174</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3783,13 +3786,13 @@
         <v>3015</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>50</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>51</v>
+        <v>153</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3816,10 +3819,10 @@
         <v>53</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>155</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3834,13 +3837,13 @@
         <v>4455</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -3864,13 +3867,13 @@
         <v>4455</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>158</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3885,13 +3888,13 @@
         <v>6477</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>75</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -3900,13 +3903,13 @@
         <v>986</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>76</v>
+        <v>158</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -3915,13 +3918,13 @@
         <v>7463</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>53</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>162</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3936,13 +3939,13 @@
         <v>1004000</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>120</v>
+        <v>162</v>
       </c>
       <c r="H17" s="7">
         <v>939</v>
@@ -3951,10 +3954,10 @@
         <v>1031198</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>117</v>
+        <v>150</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>25</v>
@@ -3969,10 +3972,10 @@
         <v>64</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4046,7 +4049,7 @@
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -4061,7 +4064,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -4076,7 +4079,7 @@
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>170</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4094,10 +4097,10 @@
         <v>18</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>108</v>
+        <v>159</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4112,7 +4115,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="M20" s="7">
         <v>6</v>
@@ -4121,13 +4124,13 @@
         <v>6949</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>110</v>
+        <v>169</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4142,13 +4145,13 @@
         <v>10102</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>158</v>
+        <v>111</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H21" s="7">
         <v>1</v>
@@ -4157,13 +4160,13 @@
         <v>996</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="M21" s="7">
         <v>11</v>
@@ -4172,13 +4175,13 @@
         <v>11098</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4208,10 +4211,10 @@
         <v>776178</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>118</v>
+        <v>180</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>25</v>
@@ -4223,13 +4226,13 @@
         <v>1515539</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>182</v>
+        <v>84</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>64</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4285,7 +4288,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -4297,13 +4300,13 @@
         <v>3930</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -4318,7 +4321,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M24" s="7">
         <v>4</v>
@@ -4330,10 +4333,10 @@
         <v>75</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>100</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4348,13 +4351,13 @@
         <v>5525</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -4363,13 +4366,13 @@
         <v>1002</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>186</v>
+        <v>96</v>
       </c>
       <c r="M25" s="7">
         <v>6</v>
@@ -4384,7 +4387,7 @@
         <v>187</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>82</v>
+        <v>173</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4402,10 +4405,10 @@
         <v>188</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>38</v>
+        <v>189</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -4420,7 +4423,7 @@
         <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="M26" s="7">
         <v>15</v>
@@ -4429,13 +4432,13 @@
         <v>16609</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>162</v>
+        <v>192</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>190</v>
+        <v>158</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4450,13 +4453,13 @@
         <v>922804</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H27" s="7">
         <v>1001</v>
@@ -4468,7 +4471,7 @@
         <v>70</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L27" s="7" t="s">
         <v>25</v>
@@ -4480,13 +4483,13 @@
         <v>1972575</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>84</v>
+        <v>199</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4554,13 +4557,13 @@
         <v>8882</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>187</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -4575,7 +4578,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M29" s="7">
         <v>9</v>
@@ -4584,13 +4587,13 @@
         <v>8882</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>35</v>
+        <v>201</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4605,13 +4608,13 @@
         <v>21184</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>145</v>
+        <v>202</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="H30" s="7">
         <v>1</v>
@@ -4620,13 +4623,13 @@
         <v>1002</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="M30" s="7">
         <v>20</v>
@@ -4638,10 +4641,10 @@
         <v>59</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4656,13 +4659,13 @@
         <v>35760</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>200</v>
+        <v>174</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="H31" s="7">
         <v>4</v>
@@ -4674,10 +4677,10 @@
         <v>187</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="M31" s="7">
         <v>37</v>
@@ -4686,13 +4689,13 @@
         <v>39882</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>72</v>
+        <v>207</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4707,13 +4710,13 @@
         <v>3360953</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>204</v>
+        <v>177</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="H32" s="7">
         <v>3293</v>
@@ -4722,13 +4725,13 @@
         <v>3553185</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>45</v>
+        <v>211</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="M32" s="7">
         <v>6441</v>
@@ -4737,13 +4740,13 @@
         <v>6914138</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4799,7 +4802,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -4820,7 +4823,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE81EC42-9117-4661-819D-086F40B187E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4662FD7F-967A-4211-BCEB-3E3183C1244C}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4837,7 +4840,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4950,7 +4953,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4965,7 +4968,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4980,7 +4983,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4995,13 +4998,13 @@
         <v>1108</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>93</v>
+        <v>219</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -5016,7 +5019,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -5025,13 +5028,13 @@
         <v>1108</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>190</v>
+        <v>158</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5052,7 +5055,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -5067,7 +5070,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -5082,7 +5085,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5097,10 +5100,10 @@
         <v>115438</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>25</v>
@@ -5115,7 +5118,7 @@
         <v>25</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>27</v>
@@ -5127,10 +5130,10 @@
         <v>228798</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>25</v>
@@ -5207,7 +5210,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -5222,7 +5225,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>143</v>
+        <v>105</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -5237,7 +5240,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>110</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5252,13 +5255,13 @@
         <v>1011</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>110</v>
+        <v>169</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>220</v>
+        <v>18</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -5273,7 +5276,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>143</v>
+        <v>105</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -5288,7 +5291,7 @@
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5303,13 +5306,13 @@
         <v>4488</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>221</v>
+        <v>153</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>75</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
@@ -5318,13 +5321,13 @@
         <v>1932</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>143</v>
+        <v>105</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="M11" s="7">
         <v>6</v>
@@ -5333,13 +5336,13 @@
         <v>6420</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5357,10 +5360,10 @@
         <v>83</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="H12" s="7">
         <v>549</v>
@@ -5369,10 +5372,10 @@
         <v>557547</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>25</v>
@@ -5384,13 +5387,13 @@
         <v>1110302</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5464,7 +5467,7 @@
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -5479,7 +5482,7 @@
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>79</v>
+        <v>185</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -5491,10 +5494,10 @@
         <v>37</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5509,13 +5512,13 @@
         <v>5667</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>62</v>
+        <v>235</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>157</v>
+        <v>89</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>127</v>
+        <v>236</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -5539,13 +5542,13 @@
         <v>5667</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>113</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5560,13 +5563,13 @@
         <v>14793</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>231</v>
+        <v>79</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>51</v>
+        <v>237</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -5575,13 +5578,13 @@
         <v>1874</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>110</v>
+        <v>169</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>124</v>
+        <v>191</v>
       </c>
       <c r="M16" s="7">
         <v>14</v>
@@ -5590,13 +5593,13 @@
         <v>16667</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>51</v>
+        <v>239</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>233</v>
+        <v>40</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>191</v>
+        <v>240</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5611,13 +5614,13 @@
         <v>999827</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="H17" s="7">
         <v>974</v>
@@ -5626,13 +5629,13 @@
         <v>1039935</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>237</v>
+        <v>100</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="M17" s="7">
         <v>1906</v>
@@ -5641,13 +5644,13 @@
         <v>2039763</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5736,7 +5739,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -5751,7 +5754,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5787,7 +5790,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5802,7 +5805,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5817,13 +5820,13 @@
         <v>7478</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>241</v>
+        <v>184</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>170</v>
+        <v>110</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>242</v>
+        <v>124</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -5838,7 +5841,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="M21" s="7">
         <v>7</v>
@@ -5847,13 +5850,13 @@
         <v>7478</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>190</v>
+        <v>158</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>157</v>
+        <v>75</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>241</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5871,10 +5874,10 @@
         <v>83</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>243</v>
+        <v>208</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="H22" s="7">
         <v>736</v>
@@ -5886,7 +5889,7 @@
         <v>25</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>27</v>
@@ -5898,13 +5901,13 @@
         <v>1537085</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>83</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>246</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5960,7 +5963,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6002,13 +6005,13 @@
         <v>922</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>35</v>
+        <v>201</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6023,13 +6026,13 @@
         <v>5075</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>247</v>
+        <v>142</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -6044,7 +6047,7 @@
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="M25" s="7">
         <v>6</v>
@@ -6053,13 +6056,13 @@
         <v>6016</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="P25" s="7" t="s">
-        <v>55</v>
-      </c>
       <c r="Q25" s="7" t="s">
-        <v>96</v>
+        <v>249</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6074,13 +6077,13 @@
         <v>7017</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>59</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H26" s="7">
         <v>9</v>
@@ -6089,13 +6092,13 @@
         <v>10115</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>250</v>
+        <v>97</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M26" s="7">
         <v>16</v>
@@ -6104,13 +6107,13 @@
         <v>17132</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>252</v>
+        <v>60</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>253</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6125,13 +6128,13 @@
         <v>925475</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>107</v>
+        <v>253</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>254</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>195</v>
+        <v>255</v>
       </c>
       <c r="H27" s="7">
         <v>948</v>
@@ -6140,13 +6143,13 @@
         <v>1031801</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M27" s="7">
         <v>1868</v>
@@ -6155,13 +6158,13 @@
         <v>1957276</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>226</v>
+        <v>259</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>258</v>
+        <v>139</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>69</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6229,13 +6232,13 @@
         <v>2143</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -6244,13 +6247,13 @@
         <v>2026</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="M29" s="7">
         <v>4</v>
@@ -6259,10 +6262,10 @@
         <v>4170</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>53</v>
@@ -6280,13 +6283,13 @@
         <v>12861</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="H30" s="7">
         <v>1</v>
@@ -6295,13 +6298,13 @@
         <v>941</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>112</v>
+        <v>37</v>
       </c>
       <c r="M30" s="7">
         <v>13</v>
@@ -6313,7 +6316,7 @@
         <v>75</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>61</v>
+        <v>187</v>
       </c>
       <c r="Q30" s="7" t="s">
         <v>31</v>
@@ -6331,13 +6334,13 @@
         <v>33776</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>261</v>
+        <v>203</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>145</v>
+        <v>262</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>147</v>
+        <v>263</v>
       </c>
       <c r="H31" s="7">
         <v>13</v>
@@ -6349,10 +6352,10 @@
         <v>72</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>94</v>
+        <v>262</v>
       </c>
       <c r="M31" s="7">
         <v>43</v>
@@ -6361,13 +6364,13 @@
         <v>47696</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>91</v>
+        <v>262</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>190</v>
+        <v>94</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>220</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6382,13 +6385,13 @@
         <v>3345570</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>264</v>
+        <v>230</v>
       </c>
       <c r="H32" s="7">
         <v>3322</v>
@@ -6397,13 +6400,13 @@
         <v>3527654</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>229</v>
+        <v>85</v>
       </c>
       <c r="M32" s="7">
         <v>6509</v>
@@ -6412,13 +6415,13 @@
         <v>6873224</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>226</v>
+        <v>266</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>265</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6474,7 +6477,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -6495,7 +6498,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D693F0FA-F376-4745-93B0-BD9125942D40}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{131A5E2B-A267-4C52-A7D3-F818AAEB506C}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6512,7 +6515,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6625,7 +6628,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6640,7 +6643,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6655,7 +6658,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6670,13 +6673,13 @@
         <v>859</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -6691,7 +6694,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -6700,13 +6703,13 @@
         <v>859</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>99</v>
+        <v>273</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6727,7 +6730,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -6742,7 +6745,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -6757,7 +6760,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6772,10 +6775,10 @@
         <v>45148</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>25</v>
@@ -6790,7 +6793,7 @@
         <v>25</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>27</v>
@@ -6802,10 +6805,10 @@
         <v>72412</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>114</v>
+        <v>278</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>25</v>
@@ -6882,7 +6885,7 @@
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>144</v>
+        <v>236</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
@@ -6891,13 +6894,13 @@
         <v>1410</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>261</v>
+        <v>203</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="M9" s="7">
         <v>3</v>
@@ -6912,7 +6915,7 @@
         <v>61</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>191</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6933,7 +6936,7 @@
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -6957,13 +6960,13 @@
         <v>617</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6984,7 +6987,7 @@
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>160</v>
+        <v>283</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -7014,7 +7017,7 @@
         <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>241</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7029,13 +7032,13 @@
         <v>286401</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="H12" s="7">
         <v>205</v>
@@ -7044,10 +7047,10 @@
         <v>139618</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>25</v>
@@ -7062,10 +7065,10 @@
         <v>23</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>285</v>
+        <v>257</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7133,13 +7136,13 @@
         <v>7776</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>221</v>
+        <v>153</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="H14" s="7">
         <v>4</v>
@@ -7148,13 +7151,13 @@
         <v>3651</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="M14" s="7">
         <v>13</v>
@@ -7163,13 +7166,13 @@
         <v>11427</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>60</v>
+        <v>189</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7184,13 +7187,13 @@
         <v>657</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H15" s="7">
         <v>2</v>
@@ -7199,13 +7202,13 @@
         <v>1488</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="M15" s="7">
         <v>3</v>
@@ -7214,13 +7217,13 @@
         <v>2144</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>50</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>162</v>
+        <v>192</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -7241,7 +7244,7 @@
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -7256,7 +7259,7 @@
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -7271,7 +7274,7 @@
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7286,13 +7289,13 @@
         <v>477196</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="H17" s="7">
         <v>279</v>
@@ -7301,13 +7304,13 @@
         <v>211908</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="M17" s="7">
         <v>711</v>
@@ -7316,13 +7319,13 @@
         <v>689103</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>302</v>
+        <v>232</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7396,7 +7399,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -7405,13 +7408,13 @@
         <v>2701</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -7420,13 +7423,13 @@
         <v>2701</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>130</v>
+        <v>307</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7441,13 +7444,13 @@
         <v>2643</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>221</v>
+        <v>153</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -7462,7 +7465,7 @@
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>306</v>
+        <v>193</v>
       </c>
       <c r="M20" s="7">
         <v>6</v>
@@ -7471,13 +7474,13 @@
         <v>3530</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>160</v>
+        <v>283</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7492,13 +7495,13 @@
         <v>2985</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>38</v>
+        <v>130</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>74</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H21" s="7">
         <v>1</v>
@@ -7507,13 +7510,13 @@
         <v>696</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>92</v>
+        <v>201</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>308</v>
+        <v>263</v>
       </c>
       <c r="M21" s="7">
         <v>5</v>
@@ -7522,13 +7525,13 @@
         <v>3681</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>96</v>
+        <v>310</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>33</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7543,13 +7546,13 @@
         <v>324269</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>194</v>
+        <v>312</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>311</v>
+        <v>181</v>
       </c>
       <c r="H22" s="7">
         <v>236</v>
@@ -7558,13 +7561,13 @@
         <v>284208</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="M22" s="7">
         <v>527</v>
@@ -7573,13 +7576,13 @@
         <v>608478</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7635,7 +7638,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -7647,13 +7650,13 @@
         <v>4156</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>38</v>
+        <v>130</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="H24" s="7">
         <v>5</v>
@@ -7662,13 +7665,13 @@
         <v>2476</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>168</v>
+        <v>38</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="M24" s="7">
         <v>11</v>
@@ -7677,13 +7680,13 @@
         <v>6633</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>252</v>
+        <v>60</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7698,13 +7701,13 @@
         <v>5458</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -7728,13 +7731,13 @@
         <v>5458</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>200</v>
+        <v>143</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7749,13 +7752,13 @@
         <v>6954</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -7764,13 +7767,13 @@
         <v>822</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="M26" s="7">
         <v>9</v>
@@ -7779,13 +7782,13 @@
         <v>7776</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>198</v>
+        <v>322</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>320</v>
+        <v>207</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>321</v>
+        <v>226</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7800,13 +7803,13 @@
         <v>442901</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H27" s="7">
         <v>411</v>
@@ -7815,13 +7818,13 @@
         <v>308307</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>325</v>
+        <v>151</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>326</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>244</v>
+        <v>104</v>
       </c>
       <c r="M27" s="7">
         <v>875</v>
@@ -7836,7 +7839,7 @@
         <v>328</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>258</v>
+        <v>329</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7904,7 +7907,7 @@
         <v>12515</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>329</v>
+        <v>237</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>20</v>
@@ -7919,10 +7922,10 @@
         <v>10238</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>331</v>
@@ -7934,10 +7937,10 @@
         <v>22754</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>60</v>
+        <v>189</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>62</v>
+        <v>235</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>332</v>
@@ -7955,13 +7958,13 @@
         <v>10234</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>49</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>224</v>
+        <v>333</v>
       </c>
       <c r="H30" s="7">
         <v>4</v>
@@ -7970,13 +7973,13 @@
         <v>2374</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>92</v>
+        <v>201</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>113</v>
+        <v>234</v>
       </c>
       <c r="M30" s="7">
         <v>16</v>
@@ -7985,10 +7988,10 @@
         <v>12608</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>233</v>
+        <v>63</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Q30" s="7" t="s">
         <v>15</v>
@@ -8006,13 +8009,13 @@
         <v>12789</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>168</v>
+        <v>38</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>231</v>
+        <v>79</v>
       </c>
       <c r="H31" s="7">
         <v>3</v>
@@ -8021,13 +8024,13 @@
         <v>2189</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>145</v>
+        <v>202</v>
       </c>
       <c r="M31" s="7">
         <v>18</v>
@@ -8036,13 +8039,13 @@
         <v>14978</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8057,13 +8060,13 @@
         <v>1575913</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>334</v>
+        <v>99</v>
       </c>
       <c r="H32" s="7">
         <v>1174</v>
@@ -8093,7 +8096,7 @@
         <v>339</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>236</v>
+        <v>340</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8149,7 +8152,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Cage-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Cage-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D228313B-556B-4E8D-976C-EE9393965997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E24192CC-6CC8-4BBE-8344-7DAB9B014F25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{956E55F2-073D-4DEF-88E5-EC20AB3ECE3E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{97C80F2F-0F45-4386-98D7-CCCA5A8E1584}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="334">
   <si>
     <t>Población con sospecha de alcoholismo (CAGE) en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -98,13 +98,13 @@
     <t>0,92%</t>
   </si>
   <si>
-    <t>4,48%</t>
+    <t>4,23%</t>
   </si>
   <si>
     <t>0,46%</t>
   </si>
   <si>
-    <t>2,55%</t>
+    <t>2,44%</t>
   </si>
   <si>
     <t>Beberdor social</t>
@@ -113,7 +113,7 @@
     <t>99,08%</t>
   </si>
   <si>
-    <t>95,52%</t>
+    <t>95,77%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -128,7 +128,7 @@
     <t>99,54%</t>
   </si>
   <si>
-    <t>97,45%</t>
+    <t>97,56%</t>
   </si>
   <si>
     <t>2-10.000 hab</t>
@@ -143,925 +143,904 @@
     <t>0,17%</t>
   </si>
   <si>
-    <t>1,67%</t>
+    <t>1,78%</t>
   </si>
   <si>
     <t>0,23%</t>
   </si>
   <si>
-    <t>0,77%</t>
+    <t>0,95%</t>
   </si>
   <si>
     <t>0,16%</t>
   </si>
   <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con sospecha de alcoholismo (CAGE) en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>Población con sospecha de alcoholismo (CAGE) en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>Población con sospecha de alcoholismo (CAGE) en 2023 (Tasa respuesta: 31,73%)</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>99,96%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
     <t>0,79%</t>
   </si>
   <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
   </si>
   <si>
     <t>0,93%</t>
   </si>
   <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con sospecha de alcoholismo (CAGE) en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>99,94%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>Población con sospecha de alcoholismo (CAGE) en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>Población con sospecha de alcoholismo (CAGE) en 2023 (Tasa respuesta: 31,73%)</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
   </si>
   <si>
     <t>98,5%</t>
   </si>
   <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
     <t>98,06%</t>
   </si>
   <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
+    <t>97,39%</t>
   </si>
 </sst>
 </file>
@@ -1473,7 +1452,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{748F2E43-C918-4FC8-857A-5176B2009288}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{808A34C9-E131-491F-8AE7-4DF609EB8700}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2147,7 +2126,7 @@
         <v>54</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2162,13 +2141,13 @@
         <v>969</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -2198,7 +2177,7 @@
         <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2213,13 +2192,13 @@
         <v>3119</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -2228,13 +2207,13 @@
         <v>1030</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -2246,10 +2225,10 @@
         <v>52</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2264,10 +2243,10 @@
         <v>954771</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>45</v>
@@ -2279,10 +2258,10 @@
         <v>967363</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>25</v>
@@ -2294,13 +2273,13 @@
         <v>1922134</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2356,7 +2335,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2368,13 +2347,13 @@
         <v>2666</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -2389,7 +2368,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -2398,13 +2377,13 @@
         <v>2666</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2440,7 +2419,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2473,7 +2452,7 @@
         <v>78</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>79</v>
@@ -2491,7 +2470,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M21" s="7">
         <v>4</v>
@@ -2503,10 +2482,10 @@
         <v>80</v>
       </c>
       <c r="P21" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2521,13 +2500,13 @@
         <v>671861</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="H22" s="7">
         <v>696</v>
@@ -2554,7 +2533,7 @@
         <v>86</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>87</v>
@@ -2640,13 +2619,13 @@
         <v>1018</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
@@ -2661,7 +2640,7 @@
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2709,10 +2688,10 @@
         <v>92</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2727,13 +2706,13 @@
         <v>4128</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>50</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H26" s="7">
         <v>4</v>
@@ -2742,13 +2721,13 @@
         <v>5235</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M26" s="7">
         <v>8</v>
@@ -2757,13 +2736,13 @@
         <v>9363</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>97</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2778,13 +2757,13 @@
         <v>934866</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="H27" s="7">
         <v>990</v>
@@ -2796,7 +2775,7 @@
         <v>100</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="L27" s="7" t="s">
         <v>45</v>
@@ -2808,13 +2787,13 @@
         <v>1965220</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2885,10 +2864,10 @@
         <v>33</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
@@ -2897,7 +2876,7 @@
         <v>1018</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>11</v>
@@ -2912,13 +2891,13 @@
         <v>6625</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2936,10 +2915,10 @@
         <v>52</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="H30" s="7">
         <v>2</v>
@@ -2948,13 +2927,13 @@
         <v>2006</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="M30" s="7">
         <v>8</v>
@@ -2963,13 +2942,13 @@
         <v>8843</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>58</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2984,13 +2963,13 @@
         <v>13194</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>35</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H31" s="7">
         <v>5</v>
@@ -3002,7 +2981,7 @@
         <v>89</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>62</v>
+        <v>111</v>
       </c>
       <c r="L31" s="7" t="s">
         <v>112</v>
@@ -3017,10 +2996,10 @@
         <v>80</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>33</v>
+        <v>113</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3032,16 +3011,16 @@
         <v>3189</v>
       </c>
       <c r="D32" s="7">
-        <v>3250904</v>
+        <v>3250905</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="H32" s="7">
         <v>3289</v>
@@ -3050,28 +3029,28 @@
         <v>3369909</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M32" s="7">
         <v>6478</v>
       </c>
       <c r="N32" s="7">
-        <v>6620814</v>
+        <v>6620813</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3083,7 +3062,7 @@
         <v>3214</v>
       </c>
       <c r="D33" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>27</v>
@@ -3113,7 +3092,7 @@
         <v>6511</v>
       </c>
       <c r="N33" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>27</v>
@@ -3127,7 +3106,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -3148,7 +3127,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{341CCC60-4B8A-497D-BDC2-7364EB47408F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B17779B-10DA-46FA-933C-5E74A47CF459}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3165,7 +3144,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3272,13 +3251,13 @@
         <v>727</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3293,7 +3272,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -3302,13 +3281,13 @@
         <v>727</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3323,13 +3302,13 @@
         <v>1553</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3344,7 +3323,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -3353,13 +3332,13 @@
         <v>1553</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>91</v>
+        <v>130</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3374,13 +3353,13 @@
         <v>727</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -3389,13 +3368,13 @@
         <v>1012</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M6" s="7">
         <v>2</v>
@@ -3404,13 +3383,13 @@
         <v>1739</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3425,13 +3404,13 @@
         <v>112759</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="H7" s="7">
         <v>98</v>
@@ -3440,10 +3419,10 @@
         <v>110893</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>25</v>
@@ -3455,13 +3434,13 @@
         <v>223652</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3535,7 +3514,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -3550,7 +3529,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -3586,7 +3565,7 @@
         <v>77</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3601,7 +3580,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -3613,10 +3592,10 @@
         <v>35</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3631,13 +3610,13 @@
         <v>2972</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>37</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>145</v>
+        <v>96</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -3652,7 +3631,7 @@
         <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
@@ -3661,13 +3640,13 @@
         <v>2972</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>39</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3682,13 +3661,13 @@
         <v>582029</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H12" s="7">
         <v>551</v>
@@ -3715,10 +3694,10 @@
         <v>150</v>
       </c>
       <c r="P12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3792,7 +3771,7 @@
         <v>50</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3807,7 +3786,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -3822,7 +3801,7 @@
         <v>54</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3837,13 +3816,13 @@
         <v>4455</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -3858,7 +3837,7 @@
         <v>12</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M15" s="7">
         <v>3</v>
@@ -3867,13 +3846,13 @@
         <v>4455</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>54</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>36</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3888,13 +3867,13 @@
         <v>6477</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>156</v>
+        <v>93</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -3903,13 +3882,13 @@
         <v>986</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>158</v>
+        <v>97</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -3918,13 +3897,13 @@
         <v>7463</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>53</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>97</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3939,13 +3918,13 @@
         <v>1004000</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="H17" s="7">
         <v>939</v>
@@ -3954,10 +3933,10 @@
         <v>1031198</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>25</v>
@@ -3969,13 +3948,13 @@
         <v>2035198</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>165</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4031,7 +4010,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4049,7 +4028,7 @@
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -4064,7 +4043,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -4079,7 +4058,7 @@
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>40</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4097,10 +4076,10 @@
         <v>18</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4115,7 +4094,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="M20" s="7">
         <v>6</v>
@@ -4124,13 +4103,13 @@
         <v>6949</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>108</v>
+        <v>167</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>169</v>
+        <v>113</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4145,13 +4124,13 @@
         <v>10102</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>171</v>
+        <v>96</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H21" s="7">
         <v>1</v>
@@ -4160,13 +4139,13 @@
         <v>996</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M21" s="7">
         <v>11</v>
@@ -4175,13 +4154,13 @@
         <v>11098</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>174</v>
+        <v>81</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>175</v>
+        <v>71</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4196,13 +4175,13 @@
         <v>739361</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H22" s="7">
         <v>704</v>
@@ -4211,10 +4190,10 @@
         <v>776178</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>25</v>
@@ -4226,13 +4205,13 @@
         <v>1515539</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>84</v>
+        <v>178</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>183</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4300,13 +4279,13 @@
         <v>3930</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F24" s="7" t="s">
-        <v>56</v>
-      </c>
       <c r="G24" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -4330,13 +4309,13 @@
         <v>3930</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>158</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4351,13 +4330,13 @@
         <v>5525</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -4366,13 +4345,13 @@
         <v>1002</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>96</v>
+        <v>180</v>
       </c>
       <c r="M25" s="7">
         <v>6</v>
@@ -4384,10 +4363,10 @@
         <v>31</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>187</v>
+        <v>77</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>173</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4402,13 +4381,13 @@
         <v>15481</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -4417,13 +4396,13 @@
         <v>1129</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>191</v>
+        <v>145</v>
       </c>
       <c r="M26" s="7">
         <v>15</v>
@@ -4432,13 +4411,13 @@
         <v>16609</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>192</v>
+        <v>51</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>158</v>
+        <v>94</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4453,13 +4432,13 @@
         <v>922804</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="H27" s="7">
         <v>1001</v>
@@ -4468,10 +4447,10 @@
         <v>1049771</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="L27" s="7" t="s">
         <v>25</v>
@@ -4483,13 +4462,13 @@
         <v>1972575</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4560,10 +4539,10 @@
         <v>92</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -4578,7 +4557,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="M29" s="7">
         <v>9</v>
@@ -4587,13 +4566,13 @@
         <v>8882</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>54</v>
+        <v>111</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>201</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4608,13 +4587,13 @@
         <v>21184</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>72</v>
+        <v>195</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="H30" s="7">
         <v>1</v>
@@ -4623,13 +4602,13 @@
         <v>1002</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="M30" s="7">
         <v>20</v>
@@ -4638,13 +4617,13 @@
         <v>22186</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>144</v>
+        <v>197</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4659,13 +4638,13 @@
         <v>35760</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="H31" s="7">
         <v>4</v>
@@ -4674,10 +4653,10 @@
         <v>4123</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L31" s="7" t="s">
         <v>80</v>
@@ -4689,13 +4668,13 @@
         <v>39882</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>207</v>
+        <v>112</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4710,13 +4689,13 @@
         <v>3360953</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>177</v>
+        <v>203</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>209</v>
+        <v>175</v>
       </c>
       <c r="H32" s="7">
         <v>3293</v>
@@ -4725,13 +4704,13 @@
         <v>3553185</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>210</v>
+        <v>118</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>211</v>
+        <v>44</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="M32" s="7">
         <v>6441</v>
@@ -4740,13 +4719,13 @@
         <v>6914138</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4802,7 +4781,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -4823,7 +4802,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4662FD7F-967A-4211-BCEB-3E3183C1244C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA356A59-4672-42D9-8D42-893B158C2ED5}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4840,7 +4819,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4953,7 +4932,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4968,7 +4947,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4983,7 +4962,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4998,13 +4977,13 @@
         <v>1108</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>219</v>
+        <v>36</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -5019,7 +4998,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -5028,13 +5007,13 @@
         <v>1108</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5055,7 +5034,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -5070,7 +5049,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -5085,7 +5064,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5100,10 +5079,10 @@
         <v>115438</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>25</v>
@@ -5118,7 +5097,7 @@
         <v>25</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>27</v>
@@ -5133,7 +5112,7 @@
         <v>150</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>225</v>
+        <v>173</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>25</v>
@@ -5210,7 +5189,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -5225,7 +5204,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -5240,7 +5219,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>169</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5255,13 +5234,13 @@
         <v>1011</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>169</v>
+        <v>113</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>18</v>
+        <v>216</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -5276,7 +5255,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -5291,7 +5270,7 @@
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>108</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5306,13 +5285,13 @@
         <v>4488</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
@@ -5321,13 +5300,13 @@
         <v>1932</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>227</v>
+        <v>172</v>
       </c>
       <c r="M11" s="7">
         <v>6</v>
@@ -5336,13 +5315,13 @@
         <v>6420</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>92</v>
+        <v>154</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5357,13 +5336,13 @@
         <v>552755</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>149</v>
+        <v>220</v>
       </c>
       <c r="H12" s="7">
         <v>549</v>
@@ -5375,7 +5354,7 @@
         <v>149</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>25</v>
@@ -5387,13 +5366,13 @@
         <v>1110302</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>231</v>
+        <v>190</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5467,7 +5446,7 @@
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>234</v>
+        <v>93</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -5476,13 +5455,13 @@
         <v>1104</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -5497,7 +5476,7 @@
         <v>54</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>40</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5512,13 +5491,13 @@
         <v>5667</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>89</v>
+        <v>154</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -5533,7 +5512,7 @@
         <v>12</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M15" s="7">
         <v>5</v>
@@ -5542,13 +5521,13 @@
         <v>5667</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>50</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>78</v>
+        <v>225</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5563,13 +5542,13 @@
         <v>14793</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>79</v>
+        <v>226</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>237</v>
+        <v>152</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -5578,13 +5557,13 @@
         <v>1874</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>169</v>
+        <v>113</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>191</v>
+        <v>75</v>
       </c>
       <c r="M16" s="7">
         <v>14</v>
@@ -5593,13 +5572,13 @@
         <v>16667</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>239</v>
+        <v>152</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5614,13 +5593,13 @@
         <v>999827</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="H17" s="7">
         <v>974</v>
@@ -5629,13 +5608,13 @@
         <v>1039935</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="M17" s="7">
         <v>1906</v>
@@ -5644,13 +5623,13 @@
         <v>2039763</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5706,7 +5685,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5724,7 +5703,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -5754,7 +5733,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5775,7 +5754,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5805,7 +5784,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5820,13 +5799,13 @@
         <v>7478</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>184</v>
+        <v>236</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>110</v>
+        <v>237</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>124</v>
+        <v>238</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -5850,13 +5829,13 @@
         <v>7478</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>184</v>
+        <v>239</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5871,13 +5850,13 @@
         <v>752074</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>208</v>
+        <v>240</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>247</v>
+        <v>67</v>
       </c>
       <c r="H22" s="7">
         <v>736</v>
@@ -5889,7 +5868,7 @@
         <v>25</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>27</v>
@@ -5904,10 +5883,10 @@
         <v>150</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>83</v>
+        <v>147</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>70</v>
+        <v>242</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5996,7 +5975,7 @@
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
@@ -6011,7 +5990,7 @@
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>201</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6026,13 +6005,13 @@
         <v>5075</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>191</v>
+        <v>75</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>142</v>
+        <v>243</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -6047,7 +6026,7 @@
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>72</v>
+        <v>224</v>
       </c>
       <c r="M25" s="7">
         <v>6</v>
@@ -6059,10 +6038,10 @@
         <v>76</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>249</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6077,13 +6056,13 @@
         <v>7017</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H26" s="7">
         <v>9</v>
@@ -6092,13 +6071,13 @@
         <v>10115</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>97</v>
+        <v>239</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="M26" s="7">
         <v>16</v>
@@ -6107,13 +6086,13 @@
         <v>17132</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>60</v>
+        <v>247</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>63</v>
+        <v>197</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>126</v>
+        <v>245</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6128,13 +6107,13 @@
         <v>925475</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>253</v>
+        <v>102</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>255</v>
+        <v>63</v>
       </c>
       <c r="H27" s="7">
         <v>948</v>
@@ -6143,13 +6122,13 @@
         <v>1031801</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="M27" s="7">
         <v>1868</v>
@@ -6158,13 +6137,13 @@
         <v>1957276</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>139</v>
+        <v>253</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6232,13 +6211,13 @@
         <v>2143</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>58</v>
+        <v>154</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -6247,13 +6226,13 @@
         <v>2026</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>35</v>
+        <v>154</v>
       </c>
       <c r="M29" s="7">
         <v>4</v>
@@ -6262,13 +6241,13 @@
         <v>4170</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6283,13 +6262,13 @@
         <v>12861</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>261</v>
+        <v>195</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>91</v>
+        <v>171</v>
       </c>
       <c r="H30" s="7">
         <v>1</v>
@@ -6298,13 +6277,13 @@
         <v>941</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="M30" s="7">
         <v>13</v>
@@ -6313,13 +6292,13 @@
         <v>13802</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>187</v>
+        <v>60</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6334,13 +6313,13 @@
         <v>33776</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>203</v>
+        <v>255</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>262</v>
+        <v>91</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="H31" s="7">
         <v>13</v>
@@ -6349,13 +6328,13 @@
         <v>13921</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>155</v>
+        <v>52</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="M31" s="7">
         <v>43</v>
@@ -6364,13 +6343,13 @@
         <v>47696</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>262</v>
+        <v>91</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>51</v>
+        <v>216</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6385,13 +6364,13 @@
         <v>3345570</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="H32" s="7">
         <v>3322</v>
@@ -6403,10 +6382,10 @@
         <v>150</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>85</v>
+        <v>241</v>
       </c>
       <c r="M32" s="7">
         <v>6509</v>
@@ -6415,13 +6394,13 @@
         <v>6873224</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>64</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6477,7 +6456,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -6498,7 +6477,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{131A5E2B-A267-4C52-A7D3-F818AAEB506C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A693414-50F8-4D16-82E1-5A5C8228BF3D}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6515,7 +6494,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6628,7 +6607,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6643,7 +6622,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6658,7 +6637,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6673,13 +6652,13 @@
         <v>859</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -6694,7 +6673,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -6703,13 +6682,13 @@
         <v>859</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6730,7 +6709,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -6745,7 +6724,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -6760,7 +6739,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6775,10 +6754,10 @@
         <v>45148</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>25</v>
@@ -6793,7 +6772,7 @@
         <v>25</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>27</v>
@@ -6805,10 +6784,10 @@
         <v>72412</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>25</v>
@@ -6879,13 +6858,13 @@
         <v>584</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>236</v>
+        <v>133</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
@@ -6894,13 +6873,13 @@
         <v>1410</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>203</v>
+        <v>255</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="M9" s="7">
         <v>3</v>
@@ -6912,10 +6891,10 @@
         <v>20</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>125</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6936,7 +6915,7 @@
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -6966,7 +6945,7 @@
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>282</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6987,7 +6966,7 @@
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -7017,7 +6996,7 @@
         <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>184</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7032,13 +7011,13 @@
         <v>286401</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="H12" s="7">
         <v>205</v>
@@ -7047,10 +7026,10 @@
         <v>139618</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>25</v>
@@ -7065,10 +7044,10 @@
         <v>23</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>119</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7136,13 +7115,13 @@
         <v>7776</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="H14" s="7">
         <v>4</v>
@@ -7151,13 +7130,13 @@
         <v>3651</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="M14" s="7">
         <v>13</v>
@@ -7166,13 +7145,13 @@
         <v>11427</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>292</v>
+        <v>127</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>189</v>
+        <v>59</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7187,13 +7166,13 @@
         <v>657</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
         <v>2</v>
@@ -7202,13 +7181,13 @@
         <v>1488</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>91</v>
+        <v>130</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="M15" s="7">
         <v>3</v>
@@ -7223,7 +7202,7 @@
         <v>50</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>192</v>
+        <v>247</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -7244,7 +7223,7 @@
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -7259,7 +7238,7 @@
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -7274,7 +7253,7 @@
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7289,13 +7268,13 @@
         <v>477196</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>298</v>
+        <v>192</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="H17" s="7">
         <v>279</v>
@@ -7304,13 +7283,13 @@
         <v>211908</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="M17" s="7">
         <v>711</v>
@@ -7319,13 +7298,13 @@
         <v>689103</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>232</v>
+        <v>297</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7381,7 +7360,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7399,7 +7378,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>156</v>
+        <v>93</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -7408,13 +7387,13 @@
         <v>2701</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>305</v>
+        <v>38</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -7423,13 +7402,13 @@
         <v>2701</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7444,13 +7423,13 @@
         <v>2643</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -7465,7 +7444,7 @@
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>193</v>
+        <v>155</v>
       </c>
       <c r="M20" s="7">
         <v>6</v>
@@ -7474,13 +7453,13 @@
         <v>3530</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>283</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7495,13 +7474,13 @@
         <v>2985</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>74</v>
+        <v>164</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="H21" s="7">
         <v>1</v>
@@ -7510,13 +7489,13 @@
         <v>696</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>201</v>
+        <v>108</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>263</v>
+        <v>302</v>
       </c>
       <c r="M21" s="7">
         <v>5</v>
@@ -7525,13 +7504,13 @@
         <v>3681</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>310</v>
+        <v>61</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>33</v>
+        <v>113</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>311</v>
+        <v>287</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7546,13 +7525,13 @@
         <v>324269</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>312</v>
+        <v>189</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>181</v>
+        <v>304</v>
       </c>
       <c r="H22" s="7">
         <v>236</v>
@@ -7561,13 +7540,13 @@
         <v>284208</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>212</v>
+        <v>307</v>
       </c>
       <c r="M22" s="7">
         <v>527</v>
@@ -7576,13 +7555,13 @@
         <v>608478</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>141</v>
+        <v>310</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7650,13 +7629,13 @@
         <v>4156</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>317</v>
+        <v>264</v>
       </c>
       <c r="H24" s="7">
         <v>5</v>
@@ -7665,13 +7644,13 @@
         <v>2476</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>38</v>
+        <v>311</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>92</v>
+        <v>35</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>318</v>
+        <v>264</v>
       </c>
       <c r="M24" s="7">
         <v>11</v>
@@ -7680,13 +7659,13 @@
         <v>6633</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>60</v>
+        <v>247</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>292</v>
+        <v>209</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7701,13 +7680,13 @@
         <v>5458</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>281</v>
+        <v>302</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -7731,13 +7710,13 @@
         <v>5458</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>143</v>
+        <v>110</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>311</v>
+        <v>155</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7752,13 +7731,13 @@
         <v>6954</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>296</v>
+        <v>313</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -7773,7 +7752,7 @@
         <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="M26" s="7">
         <v>9</v>
@@ -7782,13 +7761,13 @@
         <v>7776</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>207</v>
+        <v>94</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>226</v>
+        <v>317</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7803,13 +7782,13 @@
         <v>442901</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>323</v>
+        <v>303</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="H27" s="7">
         <v>411</v>
@@ -7818,13 +7797,13 @@
         <v>308307</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>151</v>
+        <v>260</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="M27" s="7">
         <v>875</v>
@@ -7833,13 +7812,13 @@
         <v>751208</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7907,13 +7886,13 @@
         <v>12515</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>237</v>
+        <v>324</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>330</v>
+        <v>172</v>
       </c>
       <c r="H29" s="7">
         <v>12</v>
@@ -7922,13 +7901,13 @@
         <v>10238</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>331</v>
+        <v>286</v>
       </c>
       <c r="M29" s="7">
         <v>28</v>
@@ -7937,13 +7916,13 @@
         <v>22754</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>189</v>
+        <v>325</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>235</v>
+        <v>181</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>332</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7958,13 +7937,13 @@
         <v>10234</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>156</v>
+        <v>93</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="H30" s="7">
         <v>4</v>
@@ -7973,13 +7952,13 @@
         <v>2374</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>201</v>
+        <v>108</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>62</v>
+        <v>111</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>234</v>
+        <v>91</v>
       </c>
       <c r="M30" s="7">
         <v>16</v>
@@ -7988,13 +7967,13 @@
         <v>12608</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>15</v>
+        <v>157</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8009,13 +7988,13 @@
         <v>12789</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>38</v>
+        <v>311</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>108</v>
+        <v>327</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>79</v>
+        <v>245</v>
       </c>
       <c r="H31" s="7">
         <v>3</v>
@@ -8024,13 +8003,13 @@
         <v>2189</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>202</v>
+        <v>169</v>
       </c>
       <c r="M31" s="7">
         <v>18</v>
@@ -8039,13 +8018,13 @@
         <v>14978</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>105</v>
+        <v>32</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>184</v>
+        <v>328</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8060,13 +8039,13 @@
         <v>1575913</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>99</v>
+        <v>330</v>
       </c>
       <c r="H32" s="7">
         <v>1174</v>
@@ -8075,13 +8054,13 @@
         <v>971305</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>336</v>
+        <v>292</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>337</v>
+        <v>232</v>
       </c>
       <c r="M32" s="7">
         <v>2712</v>
@@ -8090,13 +8069,13 @@
         <v>2547219</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8152,7 +8131,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Cage-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Cage-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E24192CC-6CC8-4BBE-8344-7DAB9B014F25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F39D7227-7558-4270-B5A4-BC75B4D62106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{97C80F2F-0F45-4386-98D7-CCCA5A8E1584}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{9CD286D0-38CF-4709-A3DD-14103035FEDE}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="296">
   <si>
     <t>Población con sospecha de alcoholismo (CAGE) en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Dependencia alcohólica</t>
@@ -80,967 +80,853 @@
     <t>0%</t>
   </si>
   <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>Consumo perjudicial</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>Consumo riesgo</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>Beberdor social</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con sospecha de alcoholismo (CAGE) en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>Población con sospecha de alcoholismo (CAGE) en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>Población con sospecha de alcoholismo (CAGE) en 2023 (Tasa respuesta: 31,73%)</t>
+  </si>
+  <si>
+    <t>0,84%</t>
   </si>
   <si>
     <t>0,82%</t>
   </si>
   <si>
-    <t>Consumo perjudicial</t>
-  </si>
-  <si>
-    <t>Consumo riesgo</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
   </si>
   <si>
     <t>2,44%</t>
   </si>
   <si>
-    <t>Beberdor social</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con sospecha de alcoholismo (CAGE) en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>99,94%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>Población con sospecha de alcoholismo (CAGE) en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>Población con sospecha de alcoholismo (CAGE) en 2023 (Tasa respuesta: 31,73%)</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
   </si>
   <si>
     <t>1,57%</t>
   </si>
   <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
+    <t>1,01%</t>
   </si>
   <si>
     <t>97,76%</t>
   </si>
   <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>99,96%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
   </si>
 </sst>
 </file>
@@ -1452,8 +1338,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{808A34C9-E131-491F-8AE7-4DF609EB8700}">
-  <dimension ref="A1:Q34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F6760DC-9ACB-49E3-932D-23BA1E39FAA7}">
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1597,7 +1483,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -1612,28 +1498,28 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="7">
+        <v>2</v>
+      </c>
+      <c r="D5" s="7">
+        <v>2641</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="F5" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -1648,43 +1534,43 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>2641</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" s="7">
-        <v>1058</v>
+        <v>1965</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -1699,73 +1585,73 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M6" s="7">
+        <v>2</v>
+      </c>
+      <c r="N6" s="7">
+        <v>1965</v>
+      </c>
+      <c r="O6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="7">
-        <v>1</v>
-      </c>
-      <c r="N6" s="7">
-        <v>1058</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="P6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" s="7">
-        <v>104</v>
+        <v>679</v>
       </c>
       <c r="D7" s="7">
-        <v>114300</v>
+        <v>689406</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H7" s="7">
-        <v>128</v>
+        <v>696</v>
       </c>
       <c r="I7" s="7">
-        <v>112755</v>
+        <v>688351</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M7" s="7">
-        <v>232</v>
+        <v>1375</v>
       </c>
       <c r="N7" s="7">
-        <v>227055</v>
+        <v>1377757</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1774,72 +1660,72 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
-        <v>105</v>
+        <v>683</v>
       </c>
       <c r="D8" s="7">
-        <v>115358</v>
+        <v>694012</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H8" s="7">
-        <v>128</v>
+        <v>696</v>
       </c>
       <c r="I8" s="7">
-        <v>112755</v>
+        <v>688351</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M8" s="7">
-        <v>233</v>
+        <v>1379</v>
       </c>
       <c r="N8" s="7">
-        <v>228113</v>
+        <v>1382363</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D9" s="7">
-        <v>0</v>
+        <v>2940</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -1854,43 +1740,43 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="M9" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N9" s="7">
-        <v>0</v>
+        <v>2940</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>2641</v>
+        <v>969</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -1905,124 +1791,124 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="M10" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N10" s="7">
-        <v>2641</v>
+        <v>969</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>3</v>
+      </c>
+      <c r="D11" s="7">
+        <v>3119</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="7">
         <v>1</v>
       </c>
-      <c r="D11" s="7">
-        <v>908</v>
-      </c>
-      <c r="E11" s="7" t="s">
+      <c r="I11" s="7">
+        <v>1030</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="M11" s="7">
+        <v>4</v>
+      </c>
+      <c r="N11" s="7">
+        <v>4149</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="M11" s="7">
-        <v>1</v>
-      </c>
-      <c r="N11" s="7">
-        <v>908</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" s="7">
-        <v>575</v>
+        <v>889</v>
       </c>
       <c r="D12" s="7">
-        <v>575106</v>
+        <v>954771</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H12" s="7">
-        <v>568</v>
+        <v>907</v>
       </c>
       <c r="I12" s="7">
-        <v>575596</v>
+        <v>967363</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>27</v>
       </c>
       <c r="M12" s="7">
-        <v>1143</v>
+        <v>1796</v>
       </c>
       <c r="N12" s="7">
-        <v>1150702</v>
+        <v>1922134</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2031,54 +1917,54 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>578</v>
+        <v>896</v>
       </c>
       <c r="D13" s="7">
-        <v>578654</v>
+        <v>961800</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H13" s="7">
-        <v>568</v>
+        <v>908</v>
       </c>
       <c r="I13" s="7">
-        <v>575596</v>
+        <v>968393</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M13" s="7">
-        <v>1146</v>
+        <v>1804</v>
       </c>
       <c r="N13" s="7">
-        <v>1154250</v>
+        <v>1930193</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2087,16 +1973,16 @@
         <v>3</v>
       </c>
       <c r="D14" s="7">
-        <v>2940</v>
+        <v>2666</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -2111,43 +1997,43 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
       </c>
       <c r="N14" s="7">
-        <v>2940</v>
+        <v>2666</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" s="7">
-        <v>969</v>
+        <v>0</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -2162,124 +2048,124 @@
         <v>12</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" s="7">
-        <v>969</v>
+        <v>0</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C16" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" s="7">
-        <v>3119</v>
+        <v>3982</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>1030</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
       </c>
       <c r="N16" s="7">
-        <v>4149</v>
+        <v>3982</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C17" s="7">
-        <v>889</v>
+        <v>634</v>
       </c>
       <c r="D17" s="7">
-        <v>954771</v>
+        <v>671861</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="H17" s="7">
-        <v>907</v>
+        <v>696</v>
       </c>
       <c r="I17" s="7">
-        <v>967363</v>
+        <v>683841</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="M17" s="7">
-        <v>1796</v>
+        <v>1330</v>
       </c>
       <c r="N17" s="7">
-        <v>1922134</v>
+        <v>1355702</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>68</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2288,255 +2174,255 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>896</v>
+        <v>641</v>
       </c>
       <c r="D18" s="7">
-        <v>961800</v>
+        <v>678509</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H18" s="7">
-        <v>908</v>
+        <v>696</v>
       </c>
       <c r="I18" s="7">
-        <v>968393</v>
+        <v>683841</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M18" s="7">
-        <v>1804</v>
+        <v>1337</v>
       </c>
       <c r="N18" s="7">
-        <v>1930193</v>
+        <v>1362350</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D19" s="7">
-        <v>2666</v>
+        <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>1018</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="M19" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N19" s="7">
-        <v>2666</v>
+        <v>1018</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>3227</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="G20" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H20" s="7">
+        <v>2</v>
+      </c>
+      <c r="I20" s="7">
+        <v>2006</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>73</v>
-      </c>
       <c r="M20" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N20" s="7">
-        <v>0</v>
+        <v>5233</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C21" s="7">
         <v>4</v>
       </c>
       <c r="D21" s="7">
-        <v>3982</v>
+        <v>4128</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H21" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I21" s="7">
-        <v>0</v>
+        <v>5235</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="M21" s="7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N21" s="7">
-        <v>3982</v>
+        <v>9363</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C22" s="7">
-        <v>634</v>
+        <v>987</v>
       </c>
       <c r="D22" s="7">
-        <v>671861</v>
+        <v>934866</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G22" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H22" s="7">
+        <v>990</v>
+      </c>
+      <c r="I22" s="7">
+        <v>1030354</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="H22" s="7">
-        <v>696</v>
-      </c>
-      <c r="I22" s="7">
-        <v>683841</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>85</v>
-      </c>
       <c r="L22" s="7" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="M22" s="7">
-        <v>1330</v>
+        <v>1977</v>
       </c>
       <c r="N22" s="7">
-        <v>1355702</v>
+        <v>1965220</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2545,72 +2431,72 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>641</v>
+        <v>994</v>
       </c>
       <c r="D23" s="7">
-        <v>678509</v>
+        <v>942222</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H23" s="7">
-        <v>696</v>
+        <v>997</v>
       </c>
       <c r="I23" s="7">
-        <v>683841</v>
+        <v>1038612</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M23" s="7">
-        <v>1337</v>
+        <v>1991</v>
       </c>
       <c r="N23" s="7">
-        <v>1362350</v>
+        <v>1980834</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D24" s="7">
-        <v>0</v>
+        <v>5607</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -2619,49 +2505,49 @@
         <v>1018</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="M24" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N24" s="7">
-        <v>1018</v>
+        <v>6625</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C25" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D25" s="7">
-        <v>3227</v>
+        <v>6837</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -2670,130 +2556,130 @@
         <v>2006</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M25" s="7">
+        <v>8</v>
+      </c>
+      <c r="N25" s="7">
+        <v>8843</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="M25" s="7">
-        <v>5</v>
-      </c>
-      <c r="N25" s="7">
-        <v>5233</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>55</v>
-      </c>
       <c r="Q25" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C26" s="7">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D26" s="7">
-        <v>4128</v>
+        <v>13194</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H26" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I26" s="7">
-        <v>5235</v>
+        <v>6265</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="M26" s="7">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="N26" s="7">
-        <v>9363</v>
+        <v>19459</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C27" s="7">
-        <v>987</v>
+        <v>3189</v>
       </c>
       <c r="D27" s="7">
-        <v>934866</v>
+        <v>3250904</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="H27" s="7">
-        <v>990</v>
+        <v>3289</v>
       </c>
       <c r="I27" s="7">
-        <v>1030354</v>
+        <v>3369908</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>45</v>
+        <v>107</v>
       </c>
       <c r="M27" s="7">
-        <v>1977</v>
+        <v>6478</v>
       </c>
       <c r="N27" s="7">
-        <v>1965220</v>
+        <v>6620814</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2802,319 +2688,61 @@
         <v>3</v>
       </c>
       <c r="C28" s="7">
-        <v>994</v>
+        <v>3214</v>
       </c>
       <c r="D28" s="7">
-        <v>942222</v>
+        <v>3276543</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H28" s="7">
-        <v>997</v>
+        <v>3297</v>
       </c>
       <c r="I28" s="7">
-        <v>1038612</v>
+        <v>3379197</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M28" s="7">
-        <v>1991</v>
+        <v>6511</v>
       </c>
       <c r="N28" s="7">
-        <v>1980834</v>
+        <v>6655741</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="7">
-        <v>6</v>
-      </c>
-      <c r="D29" s="7">
-        <v>5607</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H29" s="7">
-        <v>1</v>
-      </c>
-      <c r="I29" s="7">
-        <v>1018</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="M29" s="7">
-        <v>7</v>
-      </c>
-      <c r="N29" s="7">
-        <v>6625</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" s="7">
-        <v>6</v>
-      </c>
-      <c r="D30" s="7">
-        <v>6837</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H30" s="7">
-        <v>2</v>
-      </c>
-      <c r="I30" s="7">
-        <v>2006</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="M30" s="7">
-        <v>8</v>
-      </c>
-      <c r="N30" s="7">
-        <v>8843</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C31" s="7">
-        <v>13</v>
-      </c>
-      <c r="D31" s="7">
-        <v>13194</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="H31" s="7">
-        <v>5</v>
-      </c>
-      <c r="I31" s="7">
-        <v>6265</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="K31" s="7" t="s">
+      <c r="A29" t="s">
         <v>111</v>
       </c>
-      <c r="L31" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="M31" s="7">
-        <v>18</v>
-      </c>
-      <c r="N31" s="7">
-        <v>19459</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C32" s="7">
-        <v>3189</v>
-      </c>
-      <c r="D32" s="7">
-        <v>3250905</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="H32" s="7">
-        <v>3289</v>
-      </c>
-      <c r="I32" s="7">
-        <v>3369909</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="M32" s="7">
-        <v>6478</v>
-      </c>
-      <c r="N32" s="7">
-        <v>6620813</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="7">
-        <v>3214</v>
-      </c>
-      <c r="D33" s="7">
-        <v>3276544</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H33" s="7">
-        <v>3297</v>
-      </c>
-      <c r="I33" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="M33" s="7">
-        <v>6511</v>
-      </c>
-      <c r="N33" s="7">
-        <v>6655740</v>
-      </c>
-      <c r="O33" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>122</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
-    <mergeCell ref="A29:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3127,8 +2755,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B17779B-10DA-46FA-933C-5E74A47CF459}">
-  <dimension ref="A1:Q34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A7E0AC5-8389-4BF1-BCDB-8794F6770487}">
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3144,7 +2772,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3251,13 +2879,13 @@
         <v>727</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>124</v>
+        <v>41</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3272,7 +2900,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>126</v>
+        <v>65</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -3281,34 +2909,34 @@
         <v>727</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" s="7">
-        <v>1553</v>
+        <v>4255</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>128</v>
+        <v>47</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>114</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3323,43 +2951,43 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>126</v>
+        <v>65</v>
       </c>
       <c r="M5" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N5" s="7">
-        <v>1553</v>
+        <v>4255</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>116</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D6" s="7">
-        <v>727</v>
+        <v>3699</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>132</v>
+        <v>81</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -3368,79 +2996,79 @@
         <v>1012</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>133</v>
+        <v>38</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="M6" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N6" s="7">
-        <v>1739</v>
+        <v>4711</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>135</v>
+        <v>74</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>116</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" s="7">
-        <v>118</v>
+        <v>664</v>
       </c>
       <c r="D7" s="7">
-        <v>112759</v>
+        <v>694788</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="H7" s="7">
-        <v>98</v>
+        <v>649</v>
       </c>
       <c r="I7" s="7">
-        <v>110893</v>
+        <v>696038</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>140</v>
+        <v>26</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>141</v>
+        <v>49</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M7" s="7">
-        <v>216</v>
+        <v>1313</v>
       </c>
       <c r="N7" s="7">
-        <v>223652</v>
+        <v>1390826</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>139</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3449,72 +3077,72 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
-        <v>122</v>
+        <v>674</v>
       </c>
       <c r="D8" s="7">
-        <v>115765</v>
+        <v>703469</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H8" s="7">
-        <v>99</v>
+        <v>650</v>
       </c>
       <c r="I8" s="7">
-        <v>111905</v>
+        <v>697050</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M8" s="7">
-        <v>221</v>
+        <v>1324</v>
       </c>
       <c r="N8" s="7">
-        <v>227670</v>
+        <v>1400519</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D9" s="7">
-        <v>0</v>
+        <v>3015</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -3529,43 +3157,43 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N9" s="7">
-        <v>0</v>
+        <v>3015</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="7">
         <v>3</v>
       </c>
       <c r="D10" s="7">
-        <v>2702</v>
+        <v>4455</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3580,124 +3208,124 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
       </c>
       <c r="N10" s="7">
-        <v>2702</v>
+        <v>4455</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>35</v>
+        <v>114</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>111</v>
+        <v>39</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>145</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" s="7">
-        <v>2972</v>
+        <v>6477</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>146</v>
+        <v>78</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>986</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="M11" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N11" s="7">
-        <v>2972</v>
+        <v>7463</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>57</v>
+        <v>129</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>91</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" s="7">
-        <v>546</v>
+        <v>925</v>
       </c>
       <c r="D12" s="7">
-        <v>582029</v>
+        <v>1004000</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="H12" s="7">
-        <v>551</v>
+        <v>939</v>
       </c>
       <c r="I12" s="7">
-        <v>585145</v>
+        <v>1031198</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>25</v>
+        <v>134</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>27</v>
       </c>
       <c r="M12" s="7">
-        <v>1097</v>
+        <v>1864</v>
       </c>
       <c r="N12" s="7">
-        <v>1167174</v>
+        <v>2035198</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>150</v>
+        <v>49</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>82</v>
+        <v>136</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>151</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3706,72 +3334,72 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>552</v>
+        <v>936</v>
       </c>
       <c r="D13" s="7">
-        <v>587704</v>
+        <v>1017947</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H13" s="7">
-        <v>551</v>
+        <v>940</v>
       </c>
       <c r="I13" s="7">
-        <v>585145</v>
+        <v>1032184</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M13" s="7">
-        <v>1103</v>
+        <v>1876</v>
       </c>
       <c r="N13" s="7">
-        <v>1172849</v>
+        <v>2050131</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>3015</v>
+        <v>1211</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>137</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3786,43 +3414,43 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>74</v>
+        <v>138</v>
       </c>
       <c r="M14" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N14" s="7">
-        <v>3015</v>
+        <v>1211</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D15" s="7">
-        <v>4455</v>
+        <v>6949</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>94</v>
+        <v>139</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>55</v>
+        <v>140</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -3837,124 +3465,124 @@
         <v>12</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>74</v>
+        <v>138</v>
       </c>
       <c r="M15" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N15" s="7">
-        <v>4455</v>
+        <v>6949</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>54</v>
+        <v>102</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>110</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C16" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D16" s="7">
-        <v>6477</v>
+        <v>10102</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>74</v>
+        <v>144</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>986</v>
+        <v>996</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>97</v>
+        <v>146</v>
       </c>
       <c r="M16" s="7">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="N16" s="7">
-        <v>7463</v>
+        <v>11098</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>156</v>
+        <v>67</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C17" s="7">
-        <v>925</v>
+        <v>672</v>
       </c>
       <c r="D17" s="7">
-        <v>1004000</v>
+        <v>739361</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="H17" s="7">
-        <v>939</v>
+        <v>704</v>
       </c>
       <c r="I17" s="7">
-        <v>1031198</v>
+        <v>776178</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>162</v>
+        <v>133</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M17" s="7">
-        <v>1864</v>
+        <v>1376</v>
       </c>
       <c r="N17" s="7">
-        <v>2035198</v>
+        <v>1515539</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>63</v>
+        <v>152</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>99</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3963,72 +3591,72 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>936</v>
+        <v>689</v>
       </c>
       <c r="D18" s="7">
-        <v>1017947</v>
+        <v>757623</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H18" s="7">
-        <v>940</v>
+        <v>705</v>
       </c>
       <c r="I18" s="7">
-        <v>1032184</v>
+        <v>777174</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M18" s="7">
-        <v>1876</v>
+        <v>1394</v>
       </c>
       <c r="N18" s="7">
-        <v>2050131</v>
+        <v>1534797</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D19" s="7">
-        <v>1211</v>
+        <v>3930</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -4043,175 +3671,175 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>164</v>
+        <v>18</v>
       </c>
       <c r="M19" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N19" s="7">
-        <v>1211</v>
+        <v>3930</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>109</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D20" s="7">
-        <v>6949</v>
+        <v>5525</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>18</v>
+        <v>156</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>165</v>
+        <v>60</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>166</v>
+        <v>17</v>
       </c>
       <c r="H20" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>0</v>
+        <v>1002</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="M20" s="7">
         <v>6</v>
       </c>
       <c r="N20" s="7">
-        <v>6949</v>
+        <v>6526</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>168</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C21" s="7">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D21" s="7">
-        <v>10102</v>
+        <v>15481</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>96</v>
+        <v>158</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="H21" s="7">
         <v>1</v>
       </c>
       <c r="I21" s="7">
-        <v>996</v>
+        <v>1129</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>107</v>
+        <v>46</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="M21" s="7">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="N21" s="7">
-        <v>11098</v>
+        <v>16609</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C22" s="7">
-        <v>672</v>
+        <v>887</v>
       </c>
       <c r="D22" s="7">
-        <v>739361</v>
+        <v>922804</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="H22" s="7">
-        <v>704</v>
+        <v>1001</v>
       </c>
       <c r="I22" s="7">
-        <v>776178</v>
+        <v>1049771</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>176</v>
+        <v>72</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>160</v>
+        <v>24</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M22" s="7">
-        <v>1376</v>
+        <v>1888</v>
       </c>
       <c r="N22" s="7">
-        <v>1515539</v>
+        <v>1972575</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>68</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4220,72 +3848,72 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>689</v>
+        <v>910</v>
       </c>
       <c r="D23" s="7">
-        <v>757623</v>
+        <v>947739</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H23" s="7">
-        <v>705</v>
+        <v>1003</v>
       </c>
       <c r="I23" s="7">
-        <v>777174</v>
+        <v>1051901</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M23" s="7">
-        <v>1394</v>
+        <v>1913</v>
       </c>
       <c r="N23" s="7">
-        <v>1534797</v>
+        <v>1999640</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D24" s="7">
-        <v>3930</v>
+        <v>8882</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>112</v>
+        <v>77</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>179</v>
+        <v>82</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -4300,43 +3928,43 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M24" s="7">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="N24" s="7">
-        <v>3930</v>
+        <v>8882</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>180</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="7">
+        <v>19</v>
+      </c>
+      <c r="D25" s="7">
+        <v>21184</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="7">
-        <v>5</v>
-      </c>
-      <c r="D25" s="7">
-        <v>5525</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>74</v>
-      </c>
       <c r="G25" s="7" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -4345,130 +3973,130 @@
         <v>1002</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>180</v>
+        <v>14</v>
       </c>
       <c r="M25" s="7">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="N25" s="7">
-        <v>6526</v>
+        <v>22186</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>110</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C26" s="7">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="D26" s="7">
-        <v>15481</v>
+        <v>35760</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>184</v>
+        <v>119</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="H26" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I26" s="7">
-        <v>1129</v>
+        <v>4123</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>60</v>
+        <v>116</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>11</v>
+        <v>93</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>145</v>
+        <v>65</v>
       </c>
       <c r="M26" s="7">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="N26" s="7">
-        <v>16609</v>
+        <v>39882</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>186</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C27" s="7">
-        <v>887</v>
+        <v>3148</v>
       </c>
       <c r="D27" s="7">
-        <v>922804</v>
+        <v>3360953</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>189</v>
+        <v>150</v>
       </c>
       <c r="H27" s="7">
-        <v>1001</v>
+        <v>3293</v>
       </c>
       <c r="I27" s="7">
-        <v>1049771</v>
+        <v>3553185</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="M27" s="7">
+        <v>6441</v>
+      </c>
+      <c r="N27" s="7">
+        <v>6914138</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="M27" s="7">
-        <v>1888</v>
-      </c>
-      <c r="N27" s="7">
-        <v>1972575</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4477,319 +4105,61 @@
         <v>3</v>
       </c>
       <c r="C28" s="7">
-        <v>910</v>
+        <v>3209</v>
       </c>
       <c r="D28" s="7">
-        <v>947739</v>
+        <v>3426779</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H28" s="7">
-        <v>1003</v>
+        <v>3298</v>
       </c>
       <c r="I28" s="7">
-        <v>1051901</v>
+        <v>3558309</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M28" s="7">
-        <v>1913</v>
+        <v>6507</v>
       </c>
       <c r="N28" s="7">
-        <v>1999640</v>
+        <v>6985088</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="7">
-        <v>9</v>
-      </c>
-      <c r="D29" s="7">
-        <v>8882</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="H29" s="7">
-        <v>0</v>
-      </c>
-      <c r="I29" s="7">
-        <v>0</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="M29" s="7">
-        <v>9</v>
-      </c>
-      <c r="N29" s="7">
-        <v>8882</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="P29" s="7" t="s">
+      <c r="A29" t="s">
         <v>111</v>
       </c>
-      <c r="Q29" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" s="7">
-        <v>19</v>
-      </c>
-      <c r="D30" s="7">
-        <v>21184</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="H30" s="7">
-        <v>1</v>
-      </c>
-      <c r="I30" s="7">
-        <v>1002</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="M30" s="7">
-        <v>20</v>
-      </c>
-      <c r="N30" s="7">
-        <v>22186</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C31" s="7">
-        <v>33</v>
-      </c>
-      <c r="D31" s="7">
-        <v>35760</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="H31" s="7">
-        <v>4</v>
-      </c>
-      <c r="I31" s="7">
-        <v>4123</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="M31" s="7">
-        <v>37</v>
-      </c>
-      <c r="N31" s="7">
-        <v>39882</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C32" s="7">
-        <v>3148</v>
-      </c>
-      <c r="D32" s="7">
-        <v>3360953</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="H32" s="7">
-        <v>3293</v>
-      </c>
-      <c r="I32" s="7">
-        <v>3553185</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="M32" s="7">
-        <v>6441</v>
-      </c>
-      <c r="N32" s="7">
-        <v>6914138</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="7">
-        <v>3209</v>
-      </c>
-      <c r="D33" s="7">
-        <v>3426779</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H33" s="7">
-        <v>3298</v>
-      </c>
-      <c r="I33" s="7">
-        <v>3558309</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="M33" s="7">
-        <v>6507</v>
-      </c>
-      <c r="N33" s="7">
-        <v>6985088</v>
-      </c>
-      <c r="O33" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>122</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
-    <mergeCell ref="A29:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4802,8 +4172,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA356A59-4672-42D9-8D42-893B158C2ED5}">
-  <dimension ref="A1:Q34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10C892B1-079E-44CD-BC8E-935C1AA40588}">
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4819,7 +4189,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>207</v>
+        <v>179</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4932,7 +4302,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>208</v>
+        <v>65</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4947,7 +4317,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>209</v>
+        <v>65</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4962,28 +4332,28 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>210</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" s="7">
-        <v>1108</v>
+        <v>2119</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>211</v>
+        <v>75</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4998,124 +4368,124 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>209</v>
+        <v>65</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N5" s="7">
-        <v>1108</v>
+        <v>2119</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>180</v>
+        <v>137</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>212</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D6" s="7">
-        <v>0</v>
+        <v>4488</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>180</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>208</v>
+        <v>181</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" s="7">
-        <v>0</v>
+        <v>1932</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>209</v>
+        <v>83</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N6" s="7">
-        <v>0</v>
+        <v>6420</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>155</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>210</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" s="7">
-        <v>112</v>
+        <v>646</v>
       </c>
       <c r="D7" s="7">
-        <v>115438</v>
+        <v>668193</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>213</v>
+        <v>68</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>214</v>
+        <v>183</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="H7" s="7">
-        <v>115</v>
+        <v>664</v>
       </c>
       <c r="I7" s="7">
-        <v>113360</v>
+        <v>670907</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>25</v>
+        <v>184</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>215</v>
+        <v>185</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>27</v>
       </c>
       <c r="M7" s="7">
-        <v>227</v>
+        <v>1310</v>
       </c>
       <c r="N7" s="7">
-        <v>228798</v>
+        <v>1339100</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>150</v>
+        <v>186</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>173</v>
+        <v>121</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>25</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5124,123 +4494,123 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
-        <v>113</v>
+        <v>652</v>
       </c>
       <c r="D8" s="7">
-        <v>116546</v>
+        <v>674800</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H8" s="7">
-        <v>115</v>
+        <v>666</v>
       </c>
       <c r="I8" s="7">
-        <v>113360</v>
+        <v>672839</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M8" s="7">
-        <v>228</v>
+        <v>1318</v>
       </c>
       <c r="N8" s="7">
-        <v>229906</v>
+        <v>1347639</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D9" s="7">
-        <v>0</v>
+        <v>2143</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H9" s="7">
+        <v>1</v>
+      </c>
+      <c r="I9" s="7">
+        <v>1104</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="H9" s="7">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7">
-        <v>0</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>40</v>
-      </c>
       <c r="M9" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N9" s="7">
-        <v>0</v>
+        <v>3247</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D10" s="7">
-        <v>1011</v>
+        <v>5667</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>113</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>11</v>
+        <v>114</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>216</v>
+        <v>187</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -5255,124 +4625,124 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="M10" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N10" s="7">
-        <v>1011</v>
+        <v>5667</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>50</v>
+        <v>138</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D11" s="7">
-        <v>4488</v>
+        <v>14793</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>157</v>
+        <v>189</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>35</v>
+        <v>126</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>217</v>
+        <v>190</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
       </c>
       <c r="I11" s="7">
-        <v>1932</v>
+        <v>1874</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>172</v>
+        <v>61</v>
       </c>
       <c r="M11" s="7">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="N11" s="7">
-        <v>6420</v>
+        <v>16667</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>218</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" s="7">
-        <v>534</v>
+        <v>932</v>
       </c>
       <c r="D12" s="7">
-        <v>552755</v>
+        <v>999827</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>219</v>
+        <v>191</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>220</v>
+        <v>192</v>
       </c>
       <c r="H12" s="7">
-        <v>549</v>
+        <v>974</v>
       </c>
       <c r="I12" s="7">
-        <v>557547</v>
+        <v>1039935</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>149</v>
+        <v>184</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>25</v>
+        <v>194</v>
       </c>
       <c r="M12" s="7">
-        <v>1083</v>
+        <v>1906</v>
       </c>
       <c r="N12" s="7">
-        <v>1110302</v>
+        <v>2039763</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>222</v>
+        <v>196</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5381,123 +4751,123 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>539</v>
+        <v>951</v>
       </c>
       <c r="D13" s="7">
-        <v>558254</v>
+        <v>1022431</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H13" s="7">
-        <v>551</v>
+        <v>977</v>
       </c>
       <c r="I13" s="7">
-        <v>559479</v>
+        <v>1042913</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M13" s="7">
-        <v>1090</v>
+        <v>1928</v>
       </c>
       <c r="N13" s="7">
-        <v>1117733</v>
+        <v>2065344</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>2143</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="H14" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>1104</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>181</v>
+        <v>77</v>
       </c>
       <c r="M14" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>3247</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D15" s="7">
-        <v>5667</v>
+        <v>0</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>224</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>154</v>
+        <v>12</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>218</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -5512,124 +4882,124 @@
         <v>12</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M15" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N15" s="7">
-        <v>5667</v>
+        <v>0</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>164</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>225</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C16" s="7">
+        <v>7</v>
+      </c>
+      <c r="D16" s="7">
+        <v>7478</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="7">
-        <v>14793</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="H16" s="7">
-        <v>2</v>
-      </c>
-      <c r="I16" s="7">
-        <v>1874</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="L16" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M16" s="7">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N16" s="7">
-        <v>16667</v>
+        <v>7478</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>228</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C17" s="7">
-        <v>932</v>
+        <v>689</v>
       </c>
       <c r="D17" s="7">
-        <v>999827</v>
+        <v>752074</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>219</v>
+        <v>68</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>229</v>
+        <v>202</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>230</v>
+        <v>54</v>
       </c>
       <c r="H17" s="7">
-        <v>974</v>
+        <v>736</v>
       </c>
       <c r="I17" s="7">
-        <v>1039935</v>
+        <v>785011</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>231</v>
+        <v>27</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>232</v>
+        <v>203</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>233</v>
+        <v>29</v>
       </c>
       <c r="M17" s="7">
-        <v>1906</v>
+        <v>1425</v>
       </c>
       <c r="N17" s="7">
-        <v>2039763</v>
+        <v>1537085</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>235</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5638,54 +5008,54 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>951</v>
+        <v>696</v>
       </c>
       <c r="D18" s="7">
-        <v>1022431</v>
+        <v>759552</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H18" s="7">
-        <v>977</v>
+        <v>736</v>
       </c>
       <c r="I18" s="7">
-        <v>1042913</v>
+        <v>785011</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M18" s="7">
-        <v>1928</v>
+        <v>1432</v>
       </c>
       <c r="N18" s="7">
-        <v>2065344</v>
+        <v>1544563</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5703,190 +5073,190 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>922</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="M19" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19" s="7">
-        <v>0</v>
+        <v>922</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>5075</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>73</v>
+        <v>207</v>
       </c>
       <c r="H20" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>0</v>
+        <v>941</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="M20" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N20" s="7">
-        <v>0</v>
+        <v>6016</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>107</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C21" s="7">
         <v>7</v>
       </c>
       <c r="D21" s="7">
-        <v>7478</v>
+        <v>7017</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>236</v>
+        <v>19</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>237</v>
+        <v>44</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>238</v>
+        <v>208</v>
       </c>
       <c r="H21" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I21" s="7">
-        <v>0</v>
+        <v>10115</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>11</v>
+        <v>201</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>92</v>
+        <v>209</v>
       </c>
       <c r="M21" s="7">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="N21" s="7">
-        <v>7478</v>
+        <v>17132</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>52</v>
+        <v>170</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>239</v>
+        <v>208</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C22" s="7">
-        <v>689</v>
+        <v>920</v>
       </c>
       <c r="D22" s="7">
-        <v>752074</v>
+        <v>925475</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>240</v>
+        <v>211</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="H22" s="7">
-        <v>736</v>
+        <v>948</v>
       </c>
       <c r="I22" s="7">
-        <v>785011</v>
+        <v>1031801</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>25</v>
+        <v>212</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>241</v>
+        <v>213</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>27</v>
+        <v>214</v>
       </c>
       <c r="M22" s="7">
-        <v>1425</v>
+        <v>1868</v>
       </c>
       <c r="N22" s="7">
-        <v>1537085</v>
+        <v>1957276</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>150</v>
+        <v>215</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>147</v>
+        <v>216</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>242</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5895,123 +5265,123 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>696</v>
+        <v>932</v>
       </c>
       <c r="D23" s="7">
-        <v>759552</v>
+        <v>937567</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H23" s="7">
-        <v>736</v>
+        <v>959</v>
       </c>
       <c r="I23" s="7">
-        <v>785011</v>
+        <v>1043779</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M23" s="7">
-        <v>1432</v>
+        <v>1891</v>
       </c>
       <c r="N23" s="7">
-        <v>1544563</v>
+        <v>1981346</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D24" s="7">
-        <v>0</v>
+        <v>2143</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>52</v>
+        <v>114</v>
       </c>
       <c r="H24" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24" s="7">
-        <v>922</v>
+        <v>2026</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="M24" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N24" s="7">
-        <v>922</v>
+        <v>4170</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>11</v>
+        <v>217</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="7">
+        <v>12</v>
+      </c>
+      <c r="D25" s="7">
+        <v>12861</v>
+      </c>
+      <c r="E25" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="7">
-        <v>5</v>
-      </c>
-      <c r="D25" s="7">
-        <v>5075</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>75</v>
-      </c>
       <c r="F25" s="7" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>243</v>
+        <v>146</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -6020,130 +5390,130 @@
         <v>941</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>224</v>
+        <v>46</v>
       </c>
       <c r="M25" s="7">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="N25" s="7">
-        <v>6016</v>
+        <v>13802</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C26" s="7">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D26" s="7">
-        <v>7017</v>
+        <v>33776</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>244</v>
+        <v>182</v>
       </c>
       <c r="F26" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="H26" s="7">
+        <v>13</v>
+      </c>
+      <c r="I26" s="7">
+        <v>13921</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G26" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="H26" s="7">
-        <v>9</v>
-      </c>
-      <c r="I26" s="7">
-        <v>10115</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>239</v>
-      </c>
       <c r="K26" s="7" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>246</v>
+        <v>180</v>
       </c>
       <c r="M26" s="7">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="N26" s="7">
-        <v>17132</v>
+        <v>47696</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>247</v>
+        <v>76</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>197</v>
+        <v>48</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>245</v>
+        <v>219</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C27" s="7">
-        <v>920</v>
+        <v>3187</v>
       </c>
       <c r="D27" s="7">
-        <v>925475</v>
+        <v>3345570</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>102</v>
+        <v>220</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>248</v>
+        <v>221</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>63</v>
+        <v>222</v>
       </c>
       <c r="H27" s="7">
-        <v>948</v>
+        <v>3322</v>
       </c>
       <c r="I27" s="7">
-        <v>1031801</v>
+        <v>3527654</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>249</v>
+        <v>204</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>250</v>
+        <v>109</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>251</v>
+        <v>203</v>
       </c>
       <c r="M27" s="7">
-        <v>1868</v>
+        <v>6509</v>
       </c>
       <c r="N27" s="7">
-        <v>1957276</v>
+        <v>6873224</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>252</v>
+        <v>223</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>253</v>
+        <v>215</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6152,319 +5522,61 @@
         <v>3</v>
       </c>
       <c r="C28" s="7">
-        <v>932</v>
+        <v>3231</v>
       </c>
       <c r="D28" s="7">
-        <v>937567</v>
+        <v>3394350</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H28" s="7">
-        <v>959</v>
+        <v>3338</v>
       </c>
       <c r="I28" s="7">
-        <v>1043779</v>
+        <v>3544542</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M28" s="7">
-        <v>1891</v>
+        <v>6569</v>
       </c>
       <c r="N28" s="7">
-        <v>1981346</v>
+        <v>6938892</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="7">
-        <v>2</v>
-      </c>
-      <c r="D29" s="7">
-        <v>2143</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="H29" s="7">
-        <v>2</v>
-      </c>
-      <c r="I29" s="7">
-        <v>2026</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="M29" s="7">
-        <v>4</v>
-      </c>
-      <c r="N29" s="7">
-        <v>4170</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" s="7">
-        <v>12</v>
-      </c>
-      <c r="D30" s="7">
-        <v>12861</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="H30" s="7">
-        <v>1</v>
-      </c>
-      <c r="I30" s="7">
-        <v>941</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="M30" s="7">
-        <v>13</v>
-      </c>
-      <c r="N30" s="7">
-        <v>13802</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C31" s="7">
-        <v>30</v>
-      </c>
-      <c r="D31" s="7">
-        <v>33776</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="H31" s="7">
-        <v>13</v>
-      </c>
-      <c r="I31" s="7">
-        <v>13921</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="M31" s="7">
-        <v>43</v>
-      </c>
-      <c r="N31" s="7">
-        <v>47696</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C32" s="7">
-        <v>3187</v>
-      </c>
-      <c r="D32" s="7">
-        <v>3345570</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="H32" s="7">
-        <v>3322</v>
-      </c>
-      <c r="I32" s="7">
-        <v>3527654</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="M32" s="7">
-        <v>6509</v>
-      </c>
-      <c r="N32" s="7">
-        <v>6873224</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="7">
-        <v>3231</v>
-      </c>
-      <c r="D33" s="7">
-        <v>3394350</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H33" s="7">
-        <v>3338</v>
-      </c>
-      <c r="I33" s="7">
-        <v>3544542</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="M33" s="7">
-        <v>6569</v>
-      </c>
-      <c r="N33" s="7">
-        <v>6938892</v>
-      </c>
-      <c r="O33" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>122</v>
+      <c r="A29" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
-    <mergeCell ref="A29:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -6477,8 +5589,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A693414-50F8-4D16-82E1-5A5C8228BF3D}">
-  <dimension ref="A1:Q34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DCD52BF-3A6C-4C1E-9338-CCDFCFC7FD3C}">
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -6494,7 +5606,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>261</v>
+        <v>224</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6595,70 +5707,70 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>549</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>262</v>
+        <v>225</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>1307</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>226</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>263</v>
+        <v>227</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>1856</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>264</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" s="7">
-        <v>859</v>
+        <v>1395</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>265</v>
+        <v>199</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>266</v>
+        <v>158</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -6673,43 +5785,43 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>263</v>
+        <v>229</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N5" s="7">
-        <v>859</v>
+        <v>1395</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>267</v>
+        <v>13</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>268</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D6" s="7">
-        <v>0</v>
+        <v>1273</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>262</v>
+        <v>231</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -6724,73 +5836,73 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>263</v>
+        <v>229</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N6" s="7">
-        <v>0</v>
+        <v>1273</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>264</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" s="7">
-        <v>53</v>
+        <v>351</v>
       </c>
       <c r="D7" s="7">
-        <v>45148</v>
+        <v>329649</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>269</v>
+        <v>205</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>270</v>
+        <v>232</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>25</v>
+        <v>233</v>
       </c>
       <c r="H7" s="7">
-        <v>43</v>
+        <v>248</v>
       </c>
       <c r="I7" s="7">
-        <v>27264</v>
+        <v>158790</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>25</v>
+        <v>193</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>271</v>
+        <v>234</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>27</v>
       </c>
       <c r="M7" s="7">
-        <v>96</v>
+        <v>599</v>
       </c>
       <c r="N7" s="7">
-        <v>72412</v>
+        <v>488439</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>272</v>
+        <v>31</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>273</v>
+        <v>196</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6799,255 +5911,255 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
-        <v>54</v>
+        <v>356</v>
       </c>
       <c r="D8" s="7">
-        <v>46007</v>
+        <v>332866</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H8" s="7">
-        <v>43</v>
+        <v>250</v>
       </c>
       <c r="I8" s="7">
-        <v>27264</v>
+        <v>160097</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M8" s="7">
-        <v>97</v>
+        <v>606</v>
       </c>
       <c r="N8" s="7">
-        <v>73271</v>
+        <v>492963</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D9" s="7">
-        <v>584</v>
+        <v>7288</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>74</v>
+        <v>235</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>11</v>
+        <v>236</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>133</v>
+        <v>237</v>
       </c>
       <c r="H9" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I9" s="7">
-        <v>1410</v>
+        <v>3409</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>274</v>
+        <v>239</v>
       </c>
       <c r="M9" s="7">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="N9" s="7">
-        <v>1993</v>
+        <v>10697</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>20</v>
+        <v>240</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>60</v>
+        <v>241</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="7">
         <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>617</v>
+        <v>626</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>275</v>
+        <v>210</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>1327</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>144</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="M10" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N10" s="7">
-        <v>617</v>
+        <v>1954</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>1330</v>
+        <v>1564</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>20</v>
+        <v>157</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>276</v>
+        <v>243</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>632</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>18</v>
+        <v>244</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
       </c>
       <c r="N11" s="7">
-        <v>1330</v>
+        <v>2196</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>236</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" s="7">
-        <v>298</v>
+        <v>432</v>
       </c>
       <c r="D12" s="7">
-        <v>286401</v>
+        <v>467278</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>277</v>
+        <v>153</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>278</v>
+        <v>245</v>
       </c>
       <c r="G12" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="H12" s="7">
         <v>279</v>
       </c>
-      <c r="H12" s="7">
-        <v>205</v>
-      </c>
       <c r="I12" s="7">
-        <v>139618</v>
+        <v>194703</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>280</v>
+        <v>247</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>281</v>
+        <v>248</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>25</v>
+        <v>249</v>
       </c>
       <c r="M12" s="7">
-        <v>503</v>
+        <v>711</v>
       </c>
       <c r="N12" s="7">
-        <v>426019</v>
+        <v>661980</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>250</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>149</v>
+        <v>252</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7056,255 +6168,255 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>302</v>
+        <v>443</v>
       </c>
       <c r="D13" s="7">
-        <v>288931</v>
+        <v>476756</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H13" s="7">
-        <v>207</v>
+        <v>286</v>
       </c>
       <c r="I13" s="7">
-        <v>141028</v>
+        <v>200071</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M13" s="7">
-        <v>509</v>
+        <v>729</v>
       </c>
       <c r="N13" s="7">
-        <v>429959</v>
+        <v>676827</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>7776</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>282</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>169</v>
+        <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>283</v>
+        <v>78</v>
       </c>
       <c r="H14" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I14" s="7">
-        <v>3651</v>
+        <v>2228</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>208</v>
+        <v>47</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>284</v>
+        <v>253</v>
       </c>
       <c r="M14" s="7">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="N14" s="7">
-        <v>11427</v>
+        <v>2228</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>127</v>
+        <v>44</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>285</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D15" s="7">
-        <v>657</v>
+        <v>2515</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>107</v>
+        <v>254</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>255</v>
       </c>
       <c r="H15" s="7">
         <v>2</v>
       </c>
       <c r="I15" s="7">
-        <v>1488</v>
+        <v>826</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>286</v>
+        <v>256</v>
       </c>
       <c r="M15" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N15" s="7">
-        <v>2144</v>
+        <v>3340</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>76</v>
+        <v>155</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D16" s="7">
-        <v>1521</v>
+        <v>2875</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>138</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>287</v>
+        <v>258</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>671</v>
+        <v>629</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>288</v>
+        <v>126</v>
       </c>
       <c r="M16" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N16" s="7">
-        <v>2191</v>
+        <v>3503</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>49</v>
+        <v>259</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>289</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C17" s="7">
-        <v>432</v>
+        <v>291</v>
       </c>
       <c r="D17" s="7">
-        <v>477196</v>
+        <v>315852</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>192</v>
+        <v>261</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>290</v>
+        <v>251</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>291</v>
+        <v>262</v>
       </c>
       <c r="H17" s="7">
-        <v>279</v>
+        <v>236</v>
       </c>
       <c r="I17" s="7">
-        <v>211908</v>
+        <v>364852</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>292</v>
+        <v>263</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>293</v>
+        <v>264</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>294</v>
+        <v>27</v>
       </c>
       <c r="M17" s="7">
-        <v>711</v>
+        <v>527</v>
       </c>
       <c r="N17" s="7">
-        <v>689103</v>
+        <v>680705</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>295</v>
+        <v>265</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>296</v>
+        <v>266</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>297</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7313,255 +6425,255 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>443</v>
+        <v>299</v>
       </c>
       <c r="D18" s="7">
-        <v>487149</v>
+        <v>321241</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H18" s="7">
-        <v>286</v>
+        <v>240</v>
       </c>
       <c r="I18" s="7">
-        <v>217717</v>
+        <v>368534</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M18" s="7">
-        <v>729</v>
+        <v>539</v>
       </c>
       <c r="N18" s="7">
-        <v>704865</v>
+        <v>689776</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>3955</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>93</v>
+        <v>267</v>
       </c>
       <c r="H19" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I19" s="7">
-        <v>2701</v>
+        <v>2309</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>38</v>
+        <v>130</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>11</v>
+        <v>98</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>298</v>
+        <v>268</v>
       </c>
       <c r="M19" s="7">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="N19" s="7">
-        <v>2701</v>
+        <v>6264</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>94</v>
+        <v>210</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>299</v>
+        <v>269</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20" s="7">
-        <v>2643</v>
+        <v>5494</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>300</v>
+        <v>242</v>
       </c>
       <c r="H20" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>887</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>155</v>
+        <v>40</v>
       </c>
       <c r="M20" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N20" s="7">
-        <v>3530</v>
+        <v>5494</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>201</v>
+        <v>19</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>200</v>
+        <v>270</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C21" s="7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D21" s="7">
-        <v>2985</v>
+        <v>7773</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>133</v>
+        <v>271</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>164</v>
+        <v>272</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>301</v>
+        <v>273</v>
       </c>
       <c r="H21" s="7">
         <v>1</v>
       </c>
       <c r="I21" s="7">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>302</v>
+        <v>182</v>
       </c>
       <c r="M21" s="7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N21" s="7">
-        <v>3681</v>
+        <v>8465</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>61</v>
+        <v>274</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C22" s="7">
-        <v>291</v>
+        <v>464</v>
       </c>
       <c r="D22" s="7">
-        <v>324269</v>
+        <v>425453</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>189</v>
+        <v>264</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>303</v>
+        <v>276</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>304</v>
+        <v>277</v>
       </c>
       <c r="H22" s="7">
-        <v>236</v>
+        <v>411</v>
       </c>
       <c r="I22" s="7">
-        <v>284208</v>
+        <v>285856</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>305</v>
+        <v>278</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>306</v>
+        <v>279</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>307</v>
+        <v>233</v>
       </c>
       <c r="M22" s="7">
-        <v>527</v>
+        <v>875</v>
       </c>
       <c r="N22" s="7">
-        <v>608478</v>
+        <v>711309</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>308</v>
+        <v>280</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>309</v>
+        <v>281</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>310</v>
+        <v>282</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7570,255 +6682,255 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>299</v>
+        <v>483</v>
       </c>
       <c r="D23" s="7">
-        <v>329897</v>
+        <v>442674</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H23" s="7">
-        <v>240</v>
+        <v>417</v>
       </c>
       <c r="I23" s="7">
-        <v>288492</v>
+        <v>288857</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M23" s="7">
-        <v>539</v>
+        <v>900</v>
       </c>
       <c r="N23" s="7">
-        <v>618389</v>
+        <v>731532</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D24" s="7">
-        <v>4156</v>
+        <v>11792</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>133</v>
+        <v>19</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>40</v>
+        <v>199</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>264</v>
+        <v>283</v>
       </c>
       <c r="H24" s="7">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I24" s="7">
-        <v>2476</v>
+        <v>9252</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>311</v>
+        <v>219</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="M24" s="7">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="N24" s="7">
-        <v>6633</v>
+        <v>21044</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>247</v>
+        <v>126</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>209</v>
+        <v>285</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="7">
+        <v>12</v>
+      </c>
+      <c r="D25" s="7">
+        <v>10030</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="H25" s="7">
+        <v>4</v>
+      </c>
+      <c r="I25" s="7">
+        <v>2153</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="M25" s="7">
         <v>16</v>
       </c>
-      <c r="C25" s="7">
-        <v>5</v>
-      </c>
-      <c r="D25" s="7">
-        <v>5458</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="H25" s="7">
-        <v>0</v>
-      </c>
-      <c r="I25" s="7">
-        <v>0</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M25" s="7">
-        <v>5</v>
-      </c>
       <c r="N25" s="7">
-        <v>5458</v>
+        <v>12183</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>155</v>
+        <v>254</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C26" s="7">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D26" s="7">
-        <v>6954</v>
+        <v>13484</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>313</v>
+        <v>210</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>124</v>
+        <v>40</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>314</v>
+        <v>286</v>
       </c>
       <c r="H26" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I26" s="7">
-        <v>822</v>
+        <v>1954</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>315</v>
+        <v>63</v>
       </c>
       <c r="M26" s="7">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="N26" s="7">
-        <v>7776</v>
+        <v>15437</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>316</v>
+        <v>47</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>317</v>
+        <v>287</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C27" s="7">
-        <v>464</v>
+        <v>1538</v>
       </c>
       <c r="D27" s="7">
-        <v>442901</v>
+        <v>1538231</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>318</v>
+        <v>289</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>319</v>
+        <v>290</v>
       </c>
       <c r="H27" s="7">
-        <v>411</v>
+        <v>1174</v>
       </c>
       <c r="I27" s="7">
-        <v>308307</v>
+        <v>1004202</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>260</v>
+        <v>291</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>320</v>
+        <v>292</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>121</v>
+        <v>293</v>
       </c>
       <c r="M27" s="7">
-        <v>875</v>
+        <v>2712</v>
       </c>
       <c r="N27" s="7">
-        <v>751208</v>
+        <v>2542434</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>321</v>
+        <v>69</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>323</v>
+        <v>295</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7827,319 +6939,61 @@
         <v>3</v>
       </c>
       <c r="C28" s="7">
-        <v>483</v>
+        <v>1581</v>
       </c>
       <c r="D28" s="7">
-        <v>459469</v>
+        <v>1573537</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H28" s="7">
-        <v>417</v>
+        <v>1193</v>
       </c>
       <c r="I28" s="7">
-        <v>311606</v>
+        <v>1017561</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M28" s="7">
-        <v>900</v>
+        <v>2774</v>
       </c>
       <c r="N28" s="7">
-        <v>771075</v>
+        <v>2591098</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="7">
-        <v>16</v>
-      </c>
-      <c r="D29" s="7">
-        <v>12515</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="H29" s="7">
-        <v>12</v>
-      </c>
-      <c r="I29" s="7">
-        <v>10238</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="M29" s="7">
-        <v>28</v>
-      </c>
-      <c r="N29" s="7">
-        <v>22754</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" s="7">
-        <v>12</v>
-      </c>
-      <c r="D30" s="7">
-        <v>10234</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="H30" s="7">
-        <v>4</v>
-      </c>
-      <c r="I30" s="7">
-        <v>2374</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="K30" s="7" t="s">
+      <c r="A29" t="s">
         <v>111</v>
       </c>
-      <c r="L30" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="M30" s="7">
-        <v>16</v>
-      </c>
-      <c r="N30" s="7">
-        <v>12608</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C31" s="7">
-        <v>15</v>
-      </c>
-      <c r="D31" s="7">
-        <v>12789</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="H31" s="7">
-        <v>3</v>
-      </c>
-      <c r="I31" s="7">
-        <v>2189</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="M31" s="7">
-        <v>18</v>
-      </c>
-      <c r="N31" s="7">
-        <v>14978</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C32" s="7">
-        <v>1538</v>
-      </c>
-      <c r="D32" s="7">
-        <v>1575913</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="H32" s="7">
-        <v>1174</v>
-      </c>
-      <c r="I32" s="7">
-        <v>971305</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="M32" s="7">
-        <v>2712</v>
-      </c>
-      <c r="N32" s="7">
-        <v>2547219</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="7">
-        <v>1581</v>
-      </c>
-      <c r="D33" s="7">
-        <v>1611452</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H33" s="7">
-        <v>1193</v>
-      </c>
-      <c r="I33" s="7">
-        <v>986107</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="M33" s="7">
-        <v>2774</v>
-      </c>
-      <c r="N33" s="7">
-        <v>2597559</v>
-      </c>
-      <c r="O33" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>122</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
-    <mergeCell ref="A29:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
